--- a/app/spreadsheets/sample2.xlsx
+++ b/app/spreadsheets/sample2.xlsx
@@ -72,7 +72,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -103,6 +103,30 @@
         <bgColor rgb="FFE9EC6B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF787FFF"/>
+        <bgColor rgb="FF787FFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF90B1"/>
+        <bgColor rgb="FFFF90B1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF545FFF"/>
+        <bgColor rgb="FF545FFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE79DFF"/>
+        <bgColor rgb="FFE79DFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -116,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -268,6 +292,92 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="2" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,81 +1223,81 @@
       <c r="AE6" s="2" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="5">
-      <c r="A7" s="26" t="inlineStr">
+      <c r="A7" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B7" s="27" t="n">
+      <c r="B7" s="116" t="n">
         <v>13244</v>
       </c>
-      <c r="C7" s="28" t="n"/>
-      <c r="D7" s="28" t="n"/>
-      <c r="E7" s="28" t="n"/>
-      <c r="F7" s="29" t="inlineStr">
+      <c r="C7" s="117" t="n"/>
+      <c r="D7" s="117" t="n"/>
+      <c r="E7" s="117" t="n"/>
+      <c r="F7" s="118" t="inlineStr">
         <is>
           <t>S.K.C. Generator negatives and photographs</t>
         </is>
       </c>
-      <c r="G7" s="28" t="n"/>
-      <c r="H7" s="30" t="inlineStr">
+      <c r="G7" s="117" t="n"/>
+      <c r="H7" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">First S.K.C Generator made by Stanley Electric Mfg. Co., 1893, photograph </t>
         </is>
       </c>
-      <c r="I7" s="29" t="inlineStr">
+      <c r="I7" s="118" t="inlineStr">
         <is>
           <t>Stanley Electric Manufacturing Company (Pittsfield, Mass.)</t>
         </is>
       </c>
-      <c r="J7" s="28" t="n"/>
-      <c r="K7" s="28" t="n"/>
-      <c r="L7" s="28" t="n"/>
-      <c r="M7" s="28" t="n"/>
-      <c r="N7" s="28" t="n"/>
-      <c r="O7" s="28" t="n"/>
-      <c r="P7" s="59" t="inlineStr">
+      <c r="J7" s="117" t="n"/>
+      <c r="K7" s="117" t="n"/>
+      <c r="L7" s="117" t="n"/>
+      <c r="M7" s="117" t="n"/>
+      <c r="N7" s="117" t="n"/>
+      <c r="O7" s="117" t="n"/>
+      <c r="P7" s="120" t="inlineStr">
         <is>
           <t>1893-01-01</t>
         </is>
       </c>
-      <c r="Q7" s="28" t="n"/>
-      <c r="R7" s="31" t="inlineStr">
+      <c r="Q7" s="117" t="n"/>
+      <c r="R7" s="121" t="inlineStr">
         <is>
           <t>No Known Copyright</t>
         </is>
       </c>
-      <c r="S7" s="28" t="n"/>
-      <c r="T7" s="28" t="inlineStr">
+      <c r="S7" s="117" t="n"/>
+      <c r="T7" s="117" t="inlineStr">
         <is>
           <t>Box 5 Folder 1 Item 2</t>
         </is>
       </c>
-      <c r="U7" s="29" t="inlineStr">
+      <c r="U7" s="118" t="inlineStr">
         <is>
           <t>Glass Down, Leave in Sleeve</t>
         </is>
       </c>
-      <c r="V7" s="28" t="inlineStr">
+      <c r="V7" s="117" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B05.F01.06</t>
         </is>
       </c>
-      <c r="W7" s="38" t="n">
+      <c r="W7" s="122" t="n">
         <v>45496</v>
       </c>
-      <c r="X7" s="28" t="inlineStr">
+      <c r="X7" s="117" t="inlineStr">
         <is>
           <t>JG, SK</t>
         </is>
       </c>
-      <c r="Y7" s="32" t="n"/>
-      <c r="Z7" s="28" t="n"/>
-      <c r="AA7" s="28" t="n"/>
-      <c r="AB7" s="28" t="n"/>
-      <c r="AC7" s="28" t="n"/>
-      <c r="AD7" s="28" t="n"/>
-      <c r="AE7" s="28" t="n"/>
+      <c r="Y7" s="123" t="n"/>
+      <c r="Z7" s="117" t="n"/>
+      <c r="AA7" s="117" t="n"/>
+      <c r="AB7" s="117" t="n"/>
+      <c r="AC7" s="117" t="n"/>
+      <c r="AD7" s="117" t="n"/>
+      <c r="AE7" s="117" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="5">
       <c r="A8" s="6" t="inlineStr">
@@ -2701,612 +2811,612 @@
       <c r="AE26" s="2" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="5">
-      <c r="A27" s="26" t="inlineStr">
+      <c r="A27" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B27" s="27" t="n">
+      <c r="B27" s="116" t="n">
         <v>13250</v>
       </c>
-      <c r="C27" s="28" t="n"/>
-      <c r="D27" s="28" t="n"/>
-      <c r="E27" s="28" t="n"/>
-      <c r="F27" s="29" t="inlineStr">
+      <c r="C27" s="117" t="n"/>
+      <c r="D27" s="117" t="n"/>
+      <c r="E27" s="117" t="n"/>
+      <c r="F27" s="118" t="inlineStr">
         <is>
           <t>Induction meter documents and photographs</t>
         </is>
       </c>
-      <c r="G27" s="28" t="n"/>
-      <c r="H27" s="30" t="inlineStr">
+      <c r="G27" s="117" t="n"/>
+      <c r="H27" s="119" t="inlineStr">
         <is>
           <t>Photograph of Induction Meter, Undated 03</t>
         </is>
       </c>
-      <c r="I27" s="30" t="inlineStr">
+      <c r="I27" s="119" t="inlineStr">
         <is>
           <t>Stanley Instrument Co. (Gt. Barrington, Mass)</t>
         </is>
       </c>
-      <c r="J27" s="28" t="n"/>
-      <c r="K27" s="28" t="n"/>
-      <c r="L27" s="28" t="n"/>
-      <c r="M27" s="27" t="n">
+      <c r="J27" s="117" t="n"/>
+      <c r="K27" s="117" t="n"/>
+      <c r="L27" s="117" t="n"/>
+      <c r="M27" s="116" t="n">
         <v>1902</v>
       </c>
-      <c r="N27" s="28" t="n"/>
-      <c r="O27" s="28" t="inlineStr">
+      <c r="N27" s="117" t="n"/>
+      <c r="O27" s="117" t="inlineStr">
         <is>
           <t>undated</t>
         </is>
       </c>
-      <c r="P27" s="59" t="n"/>
-      <c r="Q27" s="28" t="n"/>
-      <c r="R27" s="31" t="inlineStr">
+      <c r="P27" s="120" t="n"/>
+      <c r="Q27" s="117" t="n"/>
+      <c r="R27" s="121" t="inlineStr">
         <is>
           <t xml:space="preserve">Copyright Undetermined </t>
         </is>
       </c>
-      <c r="S27" s="28" t="n"/>
-      <c r="T27" s="28" t="inlineStr">
+      <c r="S27" s="117" t="n"/>
+      <c r="T27" s="117" t="inlineStr">
         <is>
           <t>Box 5 Folder 9 Item 3</t>
         </is>
       </c>
-      <c r="U27" s="30" t="inlineStr">
+      <c r="U27" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">Glass Down, Leave in Sleeve </t>
         </is>
       </c>
-      <c r="V27" s="28" t="inlineStr">
+      <c r="V27" s="117" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B05.F09.02</t>
         </is>
       </c>
-      <c r="W27" s="38" t="n">
+      <c r="W27" s="122" t="n">
         <v>45497</v>
       </c>
-      <c r="X27" s="28" t="inlineStr">
+      <c r="X27" s="117" t="inlineStr">
         <is>
           <t>JG, SK</t>
         </is>
       </c>
-      <c r="Y27" s="32" t="n"/>
-      <c r="Z27" s="28" t="n"/>
-      <c r="AA27" s="28" t="n"/>
-      <c r="AB27" s="28" t="n"/>
-      <c r="AC27" s="28" t="n"/>
-      <c r="AD27" s="28" t="n"/>
-      <c r="AE27" s="28" t="n"/>
+      <c r="Y27" s="123" t="n"/>
+      <c r="Z27" s="117" t="n"/>
+      <c r="AA27" s="117" t="n"/>
+      <c r="AB27" s="117" t="n"/>
+      <c r="AC27" s="117" t="n"/>
+      <c r="AD27" s="117" t="n"/>
+      <c r="AE27" s="117" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="5">
-      <c r="A28" s="26" t="inlineStr">
+      <c r="A28" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B28" s="27" t="n">
+      <c r="B28" s="116" t="n">
         <v>13250</v>
       </c>
-      <c r="C28" s="28" t="n"/>
-      <c r="D28" s="28" t="n"/>
-      <c r="E28" s="28" t="n"/>
-      <c r="F28" s="29" t="inlineStr">
+      <c r="C28" s="117" t="n"/>
+      <c r="D28" s="117" t="n"/>
+      <c r="E28" s="117" t="n"/>
+      <c r="F28" s="118" t="inlineStr">
         <is>
           <t>Induction meter documents and photographs</t>
         </is>
       </c>
-      <c r="G28" s="28" t="n"/>
-      <c r="H28" s="30" t="inlineStr">
+      <c r="G28" s="117" t="n"/>
+      <c r="H28" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">Photograph of Induction Meter, Undated , 04 </t>
         </is>
       </c>
-      <c r="I28" s="30" t="inlineStr">
+      <c r="I28" s="119" t="inlineStr">
         <is>
           <t>Stanley Instrument Co. (Gt. Barrington, Mass)</t>
         </is>
       </c>
-      <c r="J28" s="28" t="n"/>
-      <c r="K28" s="28" t="n"/>
-      <c r="L28" s="28" t="n"/>
-      <c r="M28" s="27" t="n">
+      <c r="J28" s="117" t="n"/>
+      <c r="K28" s="117" t="n"/>
+      <c r="L28" s="117" t="n"/>
+      <c r="M28" s="116" t="n">
         <v>1902</v>
       </c>
-      <c r="N28" s="28" t="n"/>
-      <c r="O28" s="28" t="inlineStr">
+      <c r="N28" s="117" t="n"/>
+      <c r="O28" s="117" t="inlineStr">
         <is>
           <t>undated</t>
         </is>
       </c>
-      <c r="P28" s="59" t="n"/>
-      <c r="Q28" s="28" t="n"/>
-      <c r="R28" s="31" t="inlineStr">
+      <c r="P28" s="120" t="n"/>
+      <c r="Q28" s="117" t="n"/>
+      <c r="R28" s="121" t="inlineStr">
         <is>
           <t xml:space="preserve">Copyright Undetermined </t>
         </is>
       </c>
-      <c r="S28" s="28" t="n"/>
-      <c r="T28" s="28" t="inlineStr">
+      <c r="S28" s="117" t="n"/>
+      <c r="T28" s="117" t="inlineStr">
         <is>
           <t>Box 5 Folder 9 Item 4</t>
         </is>
       </c>
-      <c r="U28" s="30" t="inlineStr">
+      <c r="U28" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">Glass Down, Leave in Sleeve </t>
         </is>
       </c>
-      <c r="V28" s="28" t="inlineStr">
+      <c r="V28" s="117" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B05.F09.03</t>
         </is>
       </c>
-      <c r="W28" s="38" t="n">
+      <c r="W28" s="122" t="n">
         <v>45497</v>
       </c>
-      <c r="X28" s="28" t="inlineStr">
+      <c r="X28" s="117" t="inlineStr">
         <is>
           <t>JG, SK</t>
         </is>
       </c>
-      <c r="Y28" s="32" t="n"/>
-      <c r="Z28" s="28" t="n"/>
-      <c r="AA28" s="28" t="n"/>
-      <c r="AB28" s="28" t="n"/>
-      <c r="AC28" s="28" t="n"/>
-      <c r="AD28" s="28" t="n"/>
-      <c r="AE28" s="28" t="n"/>
+      <c r="Y28" s="123" t="n"/>
+      <c r="Z28" s="117" t="n"/>
+      <c r="AA28" s="117" t="n"/>
+      <c r="AB28" s="117" t="n"/>
+      <c r="AC28" s="117" t="n"/>
+      <c r="AD28" s="117" t="n"/>
+      <c r="AE28" s="117" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="5">
-      <c r="A29" s="26" t="inlineStr">
+      <c r="A29" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B29" s="27" t="n">
+      <c r="B29" s="116" t="n">
         <v>13250</v>
       </c>
-      <c r="C29" s="28" t="n"/>
-      <c r="D29" s="28" t="n"/>
-      <c r="E29" s="28" t="n"/>
-      <c r="F29" s="29" t="inlineStr">
+      <c r="C29" s="117" t="n"/>
+      <c r="D29" s="117" t="n"/>
+      <c r="E29" s="117" t="n"/>
+      <c r="F29" s="118" t="inlineStr">
         <is>
           <t>Induction meter documents and photographs</t>
         </is>
       </c>
-      <c r="G29" s="28" t="n"/>
-      <c r="H29" s="30" t="inlineStr">
+      <c r="G29" s="117" t="n"/>
+      <c r="H29" s="119" t="inlineStr">
         <is>
           <t>Photograph of Induction Meter, Undated  05</t>
         </is>
       </c>
-      <c r="I29" s="28" t="n"/>
-      <c r="J29" s="28" t="n"/>
-      <c r="K29" s="28" t="n"/>
-      <c r="L29" s="28" t="n"/>
-      <c r="M29" s="27" t="n">
+      <c r="I29" s="117" t="n"/>
+      <c r="J29" s="117" t="n"/>
+      <c r="K29" s="117" t="n"/>
+      <c r="L29" s="117" t="n"/>
+      <c r="M29" s="116" t="n">
         <v>1902</v>
       </c>
-      <c r="N29" s="28" t="n"/>
-      <c r="O29" s="28" t="inlineStr">
+      <c r="N29" s="117" t="n"/>
+      <c r="O29" s="117" t="inlineStr">
         <is>
           <t xml:space="preserve">undated </t>
         </is>
       </c>
-      <c r="P29" s="59" t="n"/>
-      <c r="Q29" s="28" t="n"/>
-      <c r="R29" s="31" t="inlineStr">
+      <c r="P29" s="120" t="n"/>
+      <c r="Q29" s="117" t="n"/>
+      <c r="R29" s="121" t="inlineStr">
         <is>
           <t xml:space="preserve">Copyright Undetermined </t>
         </is>
       </c>
-      <c r="S29" s="28" t="n"/>
-      <c r="T29" s="28" t="inlineStr">
+      <c r="S29" s="117" t="n"/>
+      <c r="T29" s="117" t="inlineStr">
         <is>
           <t>Box 5 Folder 9 Item 5</t>
         </is>
       </c>
-      <c r="U29" s="30" t="inlineStr">
+      <c r="U29" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">Glass Down, Leave in Sleeve </t>
         </is>
       </c>
-      <c r="V29" s="28" t="inlineStr">
+      <c r="V29" s="117" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B05.F09.04</t>
         </is>
       </c>
-      <c r="W29" s="38" t="n">
+      <c r="W29" s="122" t="n">
         <v>45497</v>
       </c>
-      <c r="X29" s="28" t="inlineStr">
+      <c r="X29" s="117" t="inlineStr">
         <is>
           <t>JG, SK</t>
         </is>
       </c>
-      <c r="Y29" s="32" t="n"/>
-      <c r="Z29" s="28" t="n"/>
-      <c r="AA29" s="28" t="n"/>
-      <c r="AB29" s="28" t="n"/>
-      <c r="AC29" s="28" t="n"/>
-      <c r="AD29" s="28" t="n"/>
-      <c r="AE29" s="28" t="n"/>
+      <c r="Y29" s="123" t="n"/>
+      <c r="Z29" s="117" t="n"/>
+      <c r="AA29" s="117" t="n"/>
+      <c r="AB29" s="117" t="n"/>
+      <c r="AC29" s="117" t="n"/>
+      <c r="AD29" s="117" t="n"/>
+      <c r="AE29" s="117" t="n"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="5">
-      <c r="A30" s="26" t="inlineStr">
+      <c r="A30" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B30" s="27" t="n">
+      <c r="B30" s="116" t="n">
         <v>13250</v>
       </c>
-      <c r="C30" s="28" t="n"/>
-      <c r="D30" s="28" t="n"/>
-      <c r="E30" s="28" t="n"/>
-      <c r="F30" s="29" t="inlineStr">
+      <c r="C30" s="117" t="n"/>
+      <c r="D30" s="117" t="n"/>
+      <c r="E30" s="117" t="n"/>
+      <c r="F30" s="118" t="inlineStr">
         <is>
           <t>Induction meter documents and photographs</t>
         </is>
       </c>
-      <c r="G30" s="28" t="n"/>
-      <c r="H30" s="30" t="inlineStr">
+      <c r="G30" s="117" t="n"/>
+      <c r="H30" s="119" t="inlineStr">
         <is>
           <t>Photograph of Induction Meter, Undated  06</t>
         </is>
       </c>
-      <c r="I30" s="28" t="n"/>
-      <c r="J30" s="28" t="n"/>
-      <c r="K30" s="28" t="n"/>
-      <c r="L30" s="28" t="n"/>
-      <c r="M30" s="27" t="n">
+      <c r="I30" s="117" t="n"/>
+      <c r="J30" s="117" t="n"/>
+      <c r="K30" s="117" t="n"/>
+      <c r="L30" s="117" t="n"/>
+      <c r="M30" s="116" t="n">
         <v>1902</v>
       </c>
-      <c r="N30" s="28" t="n"/>
-      <c r="O30" s="28" t="inlineStr">
+      <c r="N30" s="117" t="n"/>
+      <c r="O30" s="117" t="inlineStr">
         <is>
           <t xml:space="preserve">undated </t>
         </is>
       </c>
-      <c r="P30" s="59" t="n"/>
-      <c r="Q30" s="28" t="n"/>
-      <c r="R30" s="31" t="inlineStr">
+      <c r="P30" s="120" t="n"/>
+      <c r="Q30" s="117" t="n"/>
+      <c r="R30" s="121" t="inlineStr">
         <is>
           <t xml:space="preserve">Copyright Undetermined </t>
         </is>
       </c>
-      <c r="S30" s="28" t="n"/>
-      <c r="T30" s="28" t="inlineStr">
+      <c r="S30" s="117" t="n"/>
+      <c r="T30" s="117" t="inlineStr">
         <is>
           <t>Box 5 Folder 9 Item 6</t>
         </is>
       </c>
-      <c r="U30" s="30" t="inlineStr">
+      <c r="U30" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">Glass Down, Leave in Sleeve </t>
         </is>
       </c>
-      <c r="V30" s="28" t="inlineStr">
+      <c r="V30" s="117" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B05.F09.05</t>
         </is>
       </c>
-      <c r="W30" s="38" t="n">
+      <c r="W30" s="122" t="n">
         <v>45497</v>
       </c>
-      <c r="X30" s="28" t="inlineStr">
+      <c r="X30" s="117" t="inlineStr">
         <is>
           <t>JG, SK</t>
         </is>
       </c>
-      <c r="Y30" s="32" t="n"/>
-      <c r="Z30" s="28" t="n"/>
-      <c r="AA30" s="28" t="n"/>
-      <c r="AB30" s="28" t="n"/>
-      <c r="AC30" s="28" t="n"/>
-      <c r="AD30" s="28" t="n"/>
-      <c r="AE30" s="28" t="n"/>
+      <c r="Y30" s="123" t="n"/>
+      <c r="Z30" s="117" t="n"/>
+      <c r="AA30" s="117" t="n"/>
+      <c r="AB30" s="117" t="n"/>
+      <c r="AC30" s="117" t="n"/>
+      <c r="AD30" s="117" t="n"/>
+      <c r="AE30" s="117" t="n"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="5">
-      <c r="A31" s="26" t="inlineStr">
+      <c r="A31" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B31" s="27" t="n">
+      <c r="B31" s="116" t="n">
         <v>13250</v>
       </c>
-      <c r="C31" s="28" t="n"/>
-      <c r="D31" s="28" t="n"/>
-      <c r="E31" s="28" t="n"/>
-      <c r="F31" s="29" t="inlineStr">
+      <c r="C31" s="117" t="n"/>
+      <c r="D31" s="117" t="n"/>
+      <c r="E31" s="117" t="n"/>
+      <c r="F31" s="118" t="inlineStr">
         <is>
           <t>Induction meter documents and photographs</t>
         </is>
       </c>
-      <c r="G31" s="28" t="n"/>
-      <c r="H31" s="30" t="inlineStr">
+      <c r="G31" s="117" t="n"/>
+      <c r="H31" s="119" t="inlineStr">
         <is>
           <t>Photograph of Induction Meter, Undated  07</t>
         </is>
       </c>
-      <c r="I31" s="28" t="n"/>
-      <c r="J31" s="28" t="n"/>
-      <c r="K31" s="28" t="n"/>
-      <c r="L31" s="28" t="n"/>
-      <c r="M31" s="27" t="n">
+      <c r="I31" s="117" t="n"/>
+      <c r="J31" s="117" t="n"/>
+      <c r="K31" s="117" t="n"/>
+      <c r="L31" s="117" t="n"/>
+      <c r="M31" s="116" t="n">
         <v>1902</v>
       </c>
-      <c r="N31" s="28" t="n"/>
-      <c r="O31" s="28" t="inlineStr">
+      <c r="N31" s="117" t="n"/>
+      <c r="O31" s="117" t="inlineStr">
         <is>
           <t xml:space="preserve">undated </t>
         </is>
       </c>
-      <c r="P31" s="59" t="n"/>
-      <c r="Q31" s="28" t="n"/>
-      <c r="R31" s="31" t="inlineStr">
+      <c r="P31" s="120" t="n"/>
+      <c r="Q31" s="117" t="n"/>
+      <c r="R31" s="121" t="inlineStr">
         <is>
           <t xml:space="preserve">Copyright Undetermined </t>
         </is>
       </c>
-      <c r="S31" s="28" t="n"/>
-      <c r="T31" s="28" t="inlineStr">
+      <c r="S31" s="117" t="n"/>
+      <c r="T31" s="117" t="inlineStr">
         <is>
           <t>Box 5 Folder 9 Item 7</t>
         </is>
       </c>
-      <c r="U31" s="30" t="inlineStr">
+      <c r="U31" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">Glass Down, Leave in Sleeve </t>
         </is>
       </c>
-      <c r="V31" s="28" t="inlineStr">
+      <c r="V31" s="117" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B05.F09.06</t>
         </is>
       </c>
-      <c r="W31" s="38" t="n">
+      <c r="W31" s="122" t="n">
         <v>45497</v>
       </c>
-      <c r="X31" s="28" t="inlineStr">
+      <c r="X31" s="117" t="inlineStr">
         <is>
           <t>JG, SK</t>
         </is>
       </c>
-      <c r="Y31" s="32" t="n"/>
-      <c r="Z31" s="28" t="n"/>
-      <c r="AA31" s="28" t="n"/>
-      <c r="AB31" s="28" t="n"/>
-      <c r="AC31" s="28" t="n"/>
-      <c r="AD31" s="28" t="n"/>
-      <c r="AE31" s="28" t="n"/>
+      <c r="Y31" s="123" t="n"/>
+      <c r="Z31" s="117" t="n"/>
+      <c r="AA31" s="117" t="n"/>
+      <c r="AB31" s="117" t="n"/>
+      <c r="AC31" s="117" t="n"/>
+      <c r="AD31" s="117" t="n"/>
+      <c r="AE31" s="117" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="5">
-      <c r="A32" s="26" t="inlineStr">
+      <c r="A32" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B32" s="27" t="n">
+      <c r="B32" s="116" t="n">
         <v>13250</v>
       </c>
-      <c r="C32" s="28" t="n"/>
-      <c r="D32" s="28" t="n"/>
-      <c r="E32" s="28" t="n"/>
-      <c r="F32" s="29" t="inlineStr">
+      <c r="C32" s="117" t="n"/>
+      <c r="D32" s="117" t="n"/>
+      <c r="E32" s="117" t="n"/>
+      <c r="F32" s="118" t="inlineStr">
         <is>
           <t>Induction meter documents and photographs</t>
         </is>
       </c>
-      <c r="G32" s="28" t="n"/>
-      <c r="H32" s="30" t="inlineStr">
+      <c r="G32" s="117" t="n"/>
+      <c r="H32" s="119" t="inlineStr">
         <is>
           <t>Photograph of Induction Meter, Undated  08</t>
         </is>
       </c>
-      <c r="I32" s="28" t="n"/>
-      <c r="J32" s="28" t="n"/>
-      <c r="K32" s="28" t="n"/>
-      <c r="L32" s="28" t="n"/>
-      <c r="M32" s="27" t="n">
+      <c r="I32" s="117" t="n"/>
+      <c r="J32" s="117" t="n"/>
+      <c r="K32" s="117" t="n"/>
+      <c r="L32" s="117" t="n"/>
+      <c r="M32" s="116" t="n">
         <v>1902</v>
       </c>
-      <c r="N32" s="28" t="n"/>
-      <c r="O32" s="28" t="inlineStr">
+      <c r="N32" s="117" t="n"/>
+      <c r="O32" s="117" t="inlineStr">
         <is>
           <t xml:space="preserve">undated </t>
         </is>
       </c>
-      <c r="P32" s="59" t="n"/>
-      <c r="Q32" s="28" t="n"/>
-      <c r="R32" s="31" t="inlineStr">
+      <c r="P32" s="120" t="n"/>
+      <c r="Q32" s="117" t="n"/>
+      <c r="R32" s="121" t="inlineStr">
         <is>
           <t xml:space="preserve">Copyright Undetermined </t>
         </is>
       </c>
-      <c r="S32" s="28" t="n"/>
-      <c r="T32" s="28" t="inlineStr">
+      <c r="S32" s="117" t="n"/>
+      <c r="T32" s="117" t="inlineStr">
         <is>
           <t>Box 5 Folder 9 Item 8</t>
         </is>
       </c>
-      <c r="U32" s="30" t="inlineStr">
+      <c r="U32" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">Glass Down, Leave in Sleeve </t>
         </is>
       </c>
-      <c r="V32" s="28" t="inlineStr">
+      <c r="V32" s="117" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B05.F09.07</t>
         </is>
       </c>
-      <c r="W32" s="38" t="n">
+      <c r="W32" s="122" t="n">
         <v>45497</v>
       </c>
-      <c r="X32" s="28" t="inlineStr">
+      <c r="X32" s="117" t="inlineStr">
         <is>
           <t>JG, SK</t>
         </is>
       </c>
-      <c r="Y32" s="32" t="n"/>
-      <c r="Z32" s="28" t="n"/>
-      <c r="AA32" s="28" t="n"/>
-      <c r="AB32" s="28" t="n"/>
-      <c r="AC32" s="28" t="n"/>
-      <c r="AD32" s="28" t="n"/>
-      <c r="AE32" s="28" t="n"/>
+      <c r="Y32" s="123" t="n"/>
+      <c r="Z32" s="117" t="n"/>
+      <c r="AA32" s="117" t="n"/>
+      <c r="AB32" s="117" t="n"/>
+      <c r="AC32" s="117" t="n"/>
+      <c r="AD32" s="117" t="n"/>
+      <c r="AE32" s="117" t="n"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="5">
-      <c r="A33" s="26" t="inlineStr">
+      <c r="A33" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B33" s="27" t="n">
+      <c r="B33" s="116" t="n">
         <v>13250</v>
       </c>
-      <c r="C33" s="28" t="n"/>
-      <c r="D33" s="28" t="n"/>
-      <c r="E33" s="28" t="n"/>
-      <c r="F33" s="29" t="inlineStr">
+      <c r="C33" s="117" t="n"/>
+      <c r="D33" s="117" t="n"/>
+      <c r="E33" s="117" t="n"/>
+      <c r="F33" s="118" t="inlineStr">
         <is>
           <t>Induction meter documents and photographs</t>
         </is>
       </c>
-      <c r="G33" s="28" t="n"/>
-      <c r="H33" s="30" t="inlineStr">
+      <c r="G33" s="117" t="n"/>
+      <c r="H33" s="119" t="inlineStr">
         <is>
           <t>Photograph of Induction Meter, Undated  09</t>
         </is>
       </c>
-      <c r="I33" s="28" t="n"/>
-      <c r="J33" s="28" t="n"/>
-      <c r="K33" s="28" t="n"/>
-      <c r="L33" s="28" t="n"/>
-      <c r="M33" s="27" t="n">
+      <c r="I33" s="117" t="n"/>
+      <c r="J33" s="117" t="n"/>
+      <c r="K33" s="117" t="n"/>
+      <c r="L33" s="117" t="n"/>
+      <c r="M33" s="116" t="n">
         <v>1902</v>
       </c>
-      <c r="N33" s="28" t="n"/>
-      <c r="O33" s="28" t="inlineStr">
+      <c r="N33" s="117" t="n"/>
+      <c r="O33" s="117" t="inlineStr">
         <is>
           <t xml:space="preserve">undated </t>
         </is>
       </c>
-      <c r="P33" s="59" t="n"/>
-      <c r="Q33" s="28" t="n"/>
-      <c r="R33" s="31" t="inlineStr">
+      <c r="P33" s="120" t="n"/>
+      <c r="Q33" s="117" t="n"/>
+      <c r="R33" s="121" t="inlineStr">
         <is>
           <t xml:space="preserve">Copyright Undetermined </t>
         </is>
       </c>
-      <c r="S33" s="28" t="n"/>
-      <c r="T33" s="28" t="inlineStr">
+      <c r="S33" s="117" t="n"/>
+      <c r="T33" s="117" t="inlineStr">
         <is>
           <t>Box 5 Folder 9 Item 9</t>
         </is>
       </c>
-      <c r="U33" s="30" t="inlineStr">
+      <c r="U33" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">Glass Down, Leave in Sleeve </t>
         </is>
       </c>
-      <c r="V33" s="28" t="inlineStr">
+      <c r="V33" s="117" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B05.F09.08</t>
         </is>
       </c>
-      <c r="W33" s="38" t="n">
+      <c r="W33" s="122" t="n">
         <v>45497</v>
       </c>
-      <c r="X33" s="28" t="inlineStr">
+      <c r="X33" s="117" t="inlineStr">
         <is>
           <t>JG, SK</t>
         </is>
       </c>
-      <c r="Y33" s="32" t="n"/>
-      <c r="Z33" s="28" t="n"/>
-      <c r="AA33" s="28" t="n"/>
-      <c r="AB33" s="28" t="n"/>
-      <c r="AC33" s="28" t="n"/>
-      <c r="AD33" s="28" t="n"/>
-      <c r="AE33" s="28" t="n"/>
+      <c r="Y33" s="123" t="n"/>
+      <c r="Z33" s="117" t="n"/>
+      <c r="AA33" s="117" t="n"/>
+      <c r="AB33" s="117" t="n"/>
+      <c r="AC33" s="117" t="n"/>
+      <c r="AD33" s="117" t="n"/>
+      <c r="AE33" s="117" t="n"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="5">
-      <c r="A34" s="26" t="inlineStr">
+      <c r="A34" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B34" s="27" t="n">
+      <c r="B34" s="116" t="n">
         <v>13250</v>
       </c>
-      <c r="C34" s="28" t="n"/>
-      <c r="D34" s="28" t="n"/>
-      <c r="E34" s="28" t="n"/>
-      <c r="F34" s="29" t="inlineStr">
+      <c r="C34" s="117" t="n"/>
+      <c r="D34" s="117" t="n"/>
+      <c r="E34" s="117" t="n"/>
+      <c r="F34" s="118" t="inlineStr">
         <is>
           <t>Induction meter documents and photographs</t>
         </is>
       </c>
-      <c r="G34" s="28" t="n"/>
-      <c r="H34" s="30" t="inlineStr">
+      <c r="G34" s="117" t="n"/>
+      <c r="H34" s="119" t="inlineStr">
         <is>
           <t>Photograph of Induction Meter, Undated  10</t>
         </is>
       </c>
-      <c r="I34" s="28" t="n"/>
-      <c r="J34" s="28" t="n"/>
-      <c r="K34" s="28" t="n"/>
-      <c r="L34" s="28" t="n"/>
-      <c r="M34" s="27" t="n">
+      <c r="I34" s="117" t="n"/>
+      <c r="J34" s="117" t="n"/>
+      <c r="K34" s="117" t="n"/>
+      <c r="L34" s="117" t="n"/>
+      <c r="M34" s="116" t="n">
         <v>1902</v>
       </c>
-      <c r="N34" s="28" t="n"/>
-      <c r="O34" s="28" t="inlineStr">
+      <c r="N34" s="117" t="n"/>
+      <c r="O34" s="117" t="inlineStr">
         <is>
           <t xml:space="preserve">undated </t>
         </is>
       </c>
-      <c r="P34" s="59" t="n"/>
-      <c r="Q34" s="28" t="n"/>
-      <c r="R34" s="31" t="inlineStr">
+      <c r="P34" s="120" t="n"/>
+      <c r="Q34" s="117" t="n"/>
+      <c r="R34" s="121" t="inlineStr">
         <is>
           <t xml:space="preserve">Copyright Undetermined </t>
         </is>
       </c>
-      <c r="S34" s="28" t="n"/>
-      <c r="T34" s="28" t="inlineStr">
+      <c r="S34" s="117" t="n"/>
+      <c r="T34" s="117" t="inlineStr">
         <is>
           <t>Box 5 Folder 9 Item 10</t>
         </is>
       </c>
-      <c r="U34" s="30" t="inlineStr">
+      <c r="U34" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">Glass Down, Leave in Sleeve </t>
         </is>
       </c>
-      <c r="V34" s="28" t="inlineStr">
+      <c r="V34" s="117" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B05.F09.09</t>
         </is>
       </c>
-      <c r="W34" s="38" t="n">
+      <c r="W34" s="122" t="n">
         <v>45497</v>
       </c>
-      <c r="X34" s="28" t="inlineStr">
+      <c r="X34" s="117" t="inlineStr">
         <is>
           <t>JG, SK</t>
         </is>
       </c>
-      <c r="Y34" s="32" t="n"/>
-      <c r="Z34" s="28" t="n"/>
-      <c r="AA34" s="28" t="n"/>
-      <c r="AB34" s="28" t="n"/>
-      <c r="AC34" s="28" t="n"/>
-      <c r="AD34" s="28" t="n"/>
-      <c r="AE34" s="28" t="n"/>
+      <c r="Y34" s="123" t="n"/>
+      <c r="Z34" s="117" t="n"/>
+      <c r="AA34" s="117" t="n"/>
+      <c r="AB34" s="117" t="n"/>
+      <c r="AC34" s="117" t="n"/>
+      <c r="AD34" s="117" t="n"/>
+      <c r="AE34" s="117" t="n"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="5">
       <c r="A35" s="6" t="inlineStr">
@@ -3384,83 +3494,83 @@
       <c r="AE35" s="2" t="n"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="5">
-      <c r="A36" s="26" t="inlineStr">
+      <c r="A36" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B36" s="27" t="n">
+      <c r="B36" s="116" t="n">
         <v>13250</v>
       </c>
-      <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
-      <c r="E36" s="28" t="n"/>
-      <c r="F36" s="29" t="inlineStr">
+      <c r="C36" s="117" t="n"/>
+      <c r="D36" s="117" t="n"/>
+      <c r="E36" s="117" t="n"/>
+      <c r="F36" s="118" t="inlineStr">
         <is>
           <t>Induction meter documents and photographs</t>
         </is>
       </c>
-      <c r="G36" s="28" t="n"/>
-      <c r="H36" s="28" t="inlineStr">
+      <c r="G36" s="117" t="n"/>
+      <c r="H36" s="117" t="inlineStr">
         <is>
           <t xml:space="preserve">Enclosure From Marks &amp; Clerk, London, to W. Stanley Esq. </t>
         </is>
       </c>
-      <c r="I36" s="28" t="inlineStr">
+      <c r="I36" s="117" t="inlineStr">
         <is>
           <t>Marks &amp; Clerk (London)</t>
         </is>
       </c>
-      <c r="J36" s="28" t="n"/>
-      <c r="K36" s="28" t="n"/>
-      <c r="L36" s="28" t="n"/>
-      <c r="M36" s="27" t="n">
+      <c r="J36" s="117" t="n"/>
+      <c r="K36" s="117" t="n"/>
+      <c r="L36" s="117" t="n"/>
+      <c r="M36" s="116" t="n">
         <v>1902</v>
       </c>
-      <c r="N36" s="28" t="n"/>
-      <c r="O36" s="28" t="inlineStr">
+      <c r="N36" s="117" t="n"/>
+      <c r="O36" s="117" t="inlineStr">
         <is>
           <t xml:space="preserve">undated </t>
         </is>
       </c>
-      <c r="P36" s="59" t="n"/>
-      <c r="Q36" s="28" t="n"/>
-      <c r="R36" s="31" t="inlineStr">
+      <c r="P36" s="120" t="n"/>
+      <c r="Q36" s="117" t="n"/>
+      <c r="R36" s="121" t="inlineStr">
         <is>
           <t xml:space="preserve">Copyright Undetermined </t>
         </is>
       </c>
-      <c r="S36" s="28" t="n"/>
-      <c r="T36" s="28" t="inlineStr">
+      <c r="S36" s="117" t="n"/>
+      <c r="T36" s="117" t="inlineStr">
         <is>
           <t>Box 5 Folder 9 Item 12</t>
         </is>
       </c>
-      <c r="U36" s="28" t="inlineStr">
+      <c r="U36" s="117" t="inlineStr">
         <is>
           <t>Glass down, leave in sleeve.</t>
         </is>
       </c>
-      <c r="V36" s="28" t="inlineStr">
+      <c r="V36" s="117" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B05.F09.11</t>
         </is>
       </c>
-      <c r="W36" s="38" t="n">
+      <c r="W36" s="122" t="n">
         <v>45497</v>
       </c>
-      <c r="X36" s="28" t="inlineStr">
+      <c r="X36" s="117" t="inlineStr">
         <is>
           <t>JG, SK</t>
         </is>
       </c>
-      <c r="Y36" s="32" t="n"/>
-      <c r="Z36" s="28" t="n"/>
-      <c r="AA36" s="28" t="n"/>
-      <c r="AB36" s="28" t="n"/>
-      <c r="AC36" s="28" t="n"/>
-      <c r="AD36" s="28" t="n"/>
-      <c r="AE36" s="28" t="n"/>
+      <c r="Y36" s="123" t="n"/>
+      <c r="Z36" s="117" t="n"/>
+      <c r="AA36" s="117" t="n"/>
+      <c r="AB36" s="117" t="n"/>
+      <c r="AC36" s="117" t="n"/>
+      <c r="AD36" s="117" t="n"/>
+      <c r="AE36" s="117" t="n"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="5">
       <c r="A37" s="6" t="inlineStr">
@@ -5689,83 +5799,83 @@
       <c r="AE64" s="2" t="n"/>
     </row>
     <row r="65" ht="105" customHeight="1" s="5">
-      <c r="A65" s="26" t="inlineStr">
+      <c r="A65" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B65" s="27" t="n">
+      <c r="B65" s="116" t="n">
         <v>13254</v>
       </c>
-      <c r="C65" s="28" t="n"/>
-      <c r="D65" s="28" t="n"/>
-      <c r="E65" s="28" t="n"/>
-      <c r="F65" s="29" t="inlineStr">
+      <c r="C65" s="117" t="n"/>
+      <c r="D65" s="117" t="n"/>
+      <c r="E65" s="117" t="n"/>
+      <c r="F65" s="118" t="inlineStr">
         <is>
           <t>Engineering Department notices on transmission lines and inductor alternators</t>
         </is>
       </c>
-      <c r="G65" s="28" t="n"/>
-      <c r="H65" s="30" t="inlineStr">
+      <c r="G65" s="117" t="n"/>
+      <c r="H65" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">Total Lengths of Wires in Spans </t>
         </is>
       </c>
-      <c r="I65" s="29" t="inlineStr">
+      <c r="I65" s="118" t="inlineStr">
         <is>
           <t>Stanley Electric Manufacturing Company (Pittsfield, Mass.)</t>
         </is>
       </c>
-      <c r="J65" s="28" t="n"/>
-      <c r="K65" s="28" t="n"/>
-      <c r="L65" s="28" t="n"/>
-      <c r="M65" s="26" t="inlineStr">
+      <c r="J65" s="117" t="n"/>
+      <c r="K65" s="117" t="n"/>
+      <c r="L65" s="117" t="n"/>
+      <c r="M65" s="115" t="inlineStr">
         <is>
           <t>1903-1904</t>
         </is>
       </c>
-      <c r="N65" s="28" t="n"/>
-      <c r="O65" s="28" t="n"/>
-      <c r="P65" s="59" t="n">
+      <c r="N65" s="117" t="n"/>
+      <c r="O65" s="117" t="n"/>
+      <c r="P65" s="120" t="n">
         <v>1487</v>
       </c>
-      <c r="Q65" s="28" t="n"/>
-      <c r="R65" s="31" t="inlineStr">
+      <c r="Q65" s="117" t="n"/>
+      <c r="R65" s="121" t="inlineStr">
         <is>
           <t xml:space="preserve">No Copyright - United States </t>
         </is>
       </c>
-      <c r="S65" s="28" t="n"/>
-      <c r="T65" s="28" t="inlineStr">
+      <c r="S65" s="117" t="n"/>
+      <c r="T65" s="117" t="inlineStr">
         <is>
           <t xml:space="preserve">Box 5 Folder 13 </t>
         </is>
       </c>
-      <c r="U65" s="30" t="inlineStr">
+      <c r="U65" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">Glass Down. 2 pages. </t>
         </is>
       </c>
-      <c r="V65" s="28" t="inlineStr">
+      <c r="V65" s="117" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B05.F13.09</t>
         </is>
       </c>
-      <c r="W65" s="46" t="n">
+      <c r="W65" s="124" t="n">
         <v>45498</v>
       </c>
-      <c r="X65" s="28" t="inlineStr">
+      <c r="X65" s="117" t="inlineStr">
         <is>
           <t>JG, SK</t>
         </is>
       </c>
-      <c r="Y65" s="32" t="n"/>
-      <c r="Z65" s="28" t="n"/>
-      <c r="AA65" s="28" t="n"/>
-      <c r="AB65" s="28" t="n"/>
-      <c r="AC65" s="28" t="n"/>
-      <c r="AD65" s="28" t="n"/>
-      <c r="AE65" s="28" t="n"/>
+      <c r="Y65" s="123" t="n"/>
+      <c r="Z65" s="117" t="n"/>
+      <c r="AA65" s="117" t="n"/>
+      <c r="AB65" s="117" t="n"/>
+      <c r="AC65" s="117" t="n"/>
+      <c r="AD65" s="117" t="n"/>
+      <c r="AE65" s="117" t="n"/>
     </row>
     <row r="66" ht="105" customHeight="1" s="5">
       <c r="A66" s="6" t="inlineStr">
@@ -15993,103 +16103,103 @@
       <c r="AD1" s="3" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="5">
-      <c r="A2" s="26" t="inlineStr">
+      <c r="A2" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B2" s="27" t="n">
+      <c r="B2" s="116" t="n">
         <v>13269</v>
       </c>
-      <c r="C2" s="28" t="n"/>
-      <c r="D2" s="28" t="n"/>
-      <c r="E2" s="28" t="n"/>
-      <c r="F2" s="26" t="inlineStr">
+      <c r="C2" s="117" t="n"/>
+      <c r="D2" s="117" t="n"/>
+      <c r="E2" s="117" t="n"/>
+      <c r="F2" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Company Bulletins</t>
         </is>
       </c>
-      <c r="G2" s="28" t="n"/>
-      <c r="H2" s="26" t="inlineStr">
+      <c r="G2" s="117" t="n"/>
+      <c r="H2" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Company Send for G.I Bulletins</t>
         </is>
       </c>
-      <c r="I2" s="28" t="n"/>
-      <c r="J2" s="29" t="inlineStr">
+      <c r="I2" s="117" t="n"/>
+      <c r="J2" s="118" t="inlineStr">
         <is>
           <t>General Incandescent Light Company (New York, NY)</t>
         </is>
       </c>
-      <c r="K2" s="28" t="n"/>
-      <c r="L2" s="28" t="n"/>
-      <c r="M2" s="26" t="inlineStr">
+      <c r="K2" s="117" t="n"/>
+      <c r="L2" s="117" t="n"/>
+      <c r="M2" s="115" t="inlineStr">
         <is>
           <t>1903-1905</t>
         </is>
       </c>
-      <c r="N2" s="28" t="n"/>
-      <c r="O2" s="29" t="inlineStr">
+      <c r="N2" s="117" t="n"/>
+      <c r="O2" s="118" t="inlineStr">
         <is>
           <t>Press of Cowan &amp; Ditmars, New York</t>
         </is>
       </c>
-      <c r="P2" s="26" t="inlineStr">
+      <c r="P2" s="115" t="inlineStr">
         <is>
           <t>1903-1904</t>
         </is>
       </c>
-      <c r="Q2" s="59" t="n"/>
-      <c r="R2" s="28" t="n"/>
-      <c r="S2" s="26" t="inlineStr">
+      <c r="Q2" s="120" t="n"/>
+      <c r="R2" s="117" t="n"/>
+      <c r="S2" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">No Copyright - United States </t>
         </is>
       </c>
-      <c r="T2" s="28" t="n"/>
-      <c r="U2" s="30" t="inlineStr">
+      <c r="T2" s="117" t="n"/>
+      <c r="U2" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">Box 6, Folder 1, Item 1 </t>
         </is>
       </c>
-      <c r="V2" s="30" t="inlineStr">
+      <c r="V2" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">Glass up. Duplicates, Scan Only First Copy on Right with "Missing #335" written on the right side margin. </t>
         </is>
       </c>
-      <c r="W2" s="26" t="inlineStr">
+      <c r="W2" s="115" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B06.F01.p01</t>
         </is>
       </c>
-      <c r="X2" s="52" t="n">
+      <c r="X2" s="125" t="n">
         <v>45492</v>
       </c>
-      <c r="Y2" s="28" t="inlineStr">
+      <c r="Y2" s="117" t="inlineStr">
         <is>
           <t xml:space="preserve">JG, SK </t>
         </is>
       </c>
-      <c r="Z2" s="28" t="n"/>
-      <c r="AA2" s="32" t="inlineStr">
+      <c r="Z2" s="117" t="n"/>
+      <c r="AA2" s="123" t="inlineStr">
         <is>
           <t>AUTO</t>
         </is>
       </c>
-      <c r="AB2" s="32" t="inlineStr">
+      <c r="AB2" s="123" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="AC2" s="32" t="inlineStr">
+      <c r="AC2" s="123" t="inlineStr">
         <is>
           <t>File does not exist</t>
         </is>
       </c>
-      <c r="AD2" s="34" t="n"/>
-      <c r="AE2" s="32" t="n"/>
-      <c r="AF2" s="32" t="n"/>
-      <c r="AG2" s="32" t="n"/>
+      <c r="AD2" s="126" t="n"/>
+      <c r="AE2" s="123" t="n"/>
+      <c r="AF2" s="123" t="n"/>
+      <c r="AG2" s="123" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="5">
       <c r="A3" s="17" t="inlineStr">
@@ -19477,198 +19587,198 @@
       <c r="AG37" s="15" t="n"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="5">
-      <c r="A38" s="26" t="inlineStr">
+      <c r="A38" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B38" s="27" t="n">
+      <c r="B38" s="116" t="n">
         <v>13269</v>
       </c>
-      <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
-      <c r="E38" s="28" t="n"/>
-      <c r="F38" s="26" t="inlineStr">
+      <c r="C38" s="117" t="n"/>
+      <c r="D38" s="117" t="n"/>
+      <c r="E38" s="117" t="n"/>
+      <c r="F38" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Company Bulletins</t>
         </is>
       </c>
-      <c r="G38" s="28" t="n"/>
-      <c r="H38" s="26" t="inlineStr">
+      <c r="G38" s="117" t="n"/>
+      <c r="H38" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Co. Bulletin No. 3</t>
         </is>
       </c>
-      <c r="I38" s="26" t="inlineStr">
+      <c r="I38" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">Titile transcribed from bulletin </t>
         </is>
       </c>
-      <c r="J38" s="29" t="inlineStr">
+      <c r="J38" s="118" t="inlineStr">
         <is>
           <t>General Incandescent Light Company (New York, NY)</t>
         </is>
       </c>
-      <c r="K38" s="28" t="n"/>
-      <c r="L38" s="28" t="n"/>
-      <c r="M38" s="26" t="inlineStr">
+      <c r="K38" s="117" t="n"/>
+      <c r="L38" s="117" t="n"/>
+      <c r="M38" s="115" t="inlineStr">
         <is>
           <t>1903-1905</t>
         </is>
       </c>
-      <c r="N38" s="28" t="n"/>
-      <c r="O38" s="28" t="n"/>
-      <c r="P38" s="28" t="n"/>
-      <c r="Q38" s="62" t="n">
+      <c r="N38" s="117" t="n"/>
+      <c r="O38" s="117" t="n"/>
+      <c r="P38" s="117" t="n"/>
+      <c r="Q38" s="127" t="n">
         <v>1522</v>
       </c>
-      <c r="R38" s="28" t="n"/>
-      <c r="S38" s="26" t="inlineStr">
+      <c r="R38" s="117" t="n"/>
+      <c r="S38" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">No Copyright - United States </t>
         </is>
       </c>
-      <c r="T38" s="28" t="n"/>
-      <c r="U38" s="30" t="inlineStr">
+      <c r="T38" s="117" t="n"/>
+      <c r="U38" s="119" t="inlineStr">
         <is>
           <t>Box 6, Folder 1, Bulletin 3</t>
         </is>
       </c>
-      <c r="V38" s="29" t="inlineStr">
+      <c r="V38" s="118" t="inlineStr">
         <is>
           <t>Scan each bulletin as it's own file, glass down</t>
         </is>
       </c>
-      <c r="W38" s="26" t="inlineStr">
+      <c r="W38" s="115" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B06.F01.Bull.3</t>
         </is>
       </c>
-      <c r="X38" s="52" t="n">
+      <c r="X38" s="125" t="n">
         <v>45492</v>
       </c>
-      <c r="Y38" s="28" t="inlineStr">
+      <c r="Y38" s="117" t="inlineStr">
         <is>
           <t>JG, MC</t>
         </is>
       </c>
-      <c r="Z38" s="28" t="n"/>
-      <c r="AA38" s="33" t="inlineStr">
+      <c r="Z38" s="117" t="n"/>
+      <c r="AA38" s="128" t="inlineStr">
         <is>
           <t>AUTO</t>
         </is>
       </c>
-      <c r="AB38" s="32" t="inlineStr">
+      <c r="AB38" s="123" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="AC38" s="28" t="inlineStr">
+      <c r="AC38" s="117" t="inlineStr">
         <is>
           <t>File does not exist</t>
         </is>
       </c>
-      <c r="AD38" s="34" t="n"/>
-      <c r="AE38" s="33" t="n"/>
-      <c r="AF38" s="33" t="n"/>
-      <c r="AG38" s="33" t="n"/>
+      <c r="AD38" s="126" t="n"/>
+      <c r="AE38" s="128" t="n"/>
+      <c r="AF38" s="128" t="n"/>
+      <c r="AG38" s="128" t="n"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="5">
-      <c r="A39" s="26" t="inlineStr">
+      <c r="A39" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B39" s="27" t="n">
+      <c r="B39" s="116" t="n">
         <v>13269</v>
       </c>
-      <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
-      <c r="E39" s="28" t="n"/>
-      <c r="F39" s="26" t="inlineStr">
+      <c r="C39" s="117" t="n"/>
+      <c r="D39" s="117" t="n"/>
+      <c r="E39" s="117" t="n"/>
+      <c r="F39" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Company Bulletins</t>
         </is>
       </c>
-      <c r="G39" s="28" t="n"/>
-      <c r="H39" s="26" t="inlineStr">
+      <c r="G39" s="117" t="n"/>
+      <c r="H39" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Co. Bulletin No. 4</t>
         </is>
       </c>
-      <c r="I39" s="26" t="inlineStr">
+      <c r="I39" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">Titile transcribed from bulletin </t>
         </is>
       </c>
-      <c r="J39" s="29" t="inlineStr">
+      <c r="J39" s="118" t="inlineStr">
         <is>
           <t>General Incandescent Light Company (New York, NY)</t>
         </is>
       </c>
-      <c r="K39" s="28" t="n"/>
-      <c r="L39" s="28" t="n"/>
-      <c r="M39" s="26" t="inlineStr">
+      <c r="K39" s="117" t="n"/>
+      <c r="L39" s="117" t="n"/>
+      <c r="M39" s="115" t="inlineStr">
         <is>
           <t>1903-1905</t>
         </is>
       </c>
-      <c r="N39" s="28" t="n"/>
-      <c r="O39" s="28" t="n"/>
-      <c r="P39" s="28" t="n"/>
-      <c r="Q39" s="62" t="n">
+      <c r="N39" s="117" t="n"/>
+      <c r="O39" s="117" t="n"/>
+      <c r="P39" s="117" t="n"/>
+      <c r="Q39" s="127" t="n">
         <v>1583</v>
       </c>
-      <c r="R39" s="28" t="n"/>
-      <c r="S39" s="26" t="inlineStr">
+      <c r="R39" s="117" t="n"/>
+      <c r="S39" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">No Copyright - United States </t>
         </is>
       </c>
-      <c r="T39" s="28" t="n"/>
-      <c r="U39" s="30" t="inlineStr">
+      <c r="T39" s="117" t="n"/>
+      <c r="U39" s="119" t="inlineStr">
         <is>
           <t>Box 6, Folder 1, Bulletin 4</t>
         </is>
       </c>
-      <c r="V39" s="29" t="inlineStr">
+      <c r="V39" s="118" t="inlineStr">
         <is>
           <t>Scan each bulletin as it's own file, glass down</t>
         </is>
       </c>
-      <c r="W39" s="26" t="inlineStr">
+      <c r="W39" s="115" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B06.F01.Bull.4</t>
         </is>
       </c>
-      <c r="X39" s="52" t="n">
+      <c r="X39" s="125" t="n">
         <v>45492</v>
       </c>
-      <c r="Y39" s="28" t="inlineStr">
+      <c r="Y39" s="117" t="inlineStr">
         <is>
           <t>JG, MC</t>
         </is>
       </c>
-      <c r="Z39" s="28" t="n"/>
-      <c r="AA39" s="33" t="inlineStr">
+      <c r="Z39" s="117" t="n"/>
+      <c r="AA39" s="128" t="inlineStr">
         <is>
           <t>AUTO</t>
         </is>
       </c>
-      <c r="AB39" s="32" t="inlineStr">
+      <c r="AB39" s="123" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="AC39" s="28" t="inlineStr">
+      <c r="AC39" s="117" t="inlineStr">
         <is>
           <t>File does not exist</t>
         </is>
       </c>
-      <c r="AD39" s="34" t="n"/>
-      <c r="AE39" s="33" t="n"/>
-      <c r="AF39" s="33" t="n"/>
-      <c r="AG39" s="33" t="n"/>
+      <c r="AD39" s="126" t="n"/>
+      <c r="AE39" s="128" t="n"/>
+      <c r="AF39" s="128" t="n"/>
+      <c r="AG39" s="128" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="5">
       <c r="A40" s="6" t="inlineStr">
@@ -20658,89 +20768,89 @@
       <c r="AD51" s="3" t="n"/>
     </row>
     <row r="52" ht="90" customHeight="1" s="5">
-      <c r="A52" s="26" t="inlineStr">
+      <c r="A52" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B52" s="27" t="n">
+      <c r="B52" s="116" t="n">
         <v>13269</v>
       </c>
-      <c r="C52" s="28" t="n"/>
-      <c r="D52" s="28" t="n"/>
-      <c r="E52" s="28" t="n"/>
-      <c r="F52" s="26" t="inlineStr">
+      <c r="C52" s="117" t="n"/>
+      <c r="D52" s="117" t="n"/>
+      <c r="E52" s="117" t="n"/>
+      <c r="F52" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Company Bulletins</t>
         </is>
       </c>
-      <c r="G52" s="28" t="n"/>
-      <c r="H52" s="26" t="inlineStr">
+      <c r="G52" s="117" t="n"/>
+      <c r="H52" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Co. Bulletin No. 174</t>
         </is>
       </c>
-      <c r="I52" s="26" t="inlineStr">
+      <c r="I52" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">Titile transcribed from bulletin </t>
         </is>
       </c>
-      <c r="J52" s="29" t="inlineStr">
+      <c r="J52" s="118" t="inlineStr">
         <is>
           <t>General Incandescent Light Company (New York, NY)</t>
         </is>
       </c>
-      <c r="K52" s="28" t="n"/>
-      <c r="L52" s="28" t="n"/>
-      <c r="M52" s="26" t="inlineStr">
+      <c r="K52" s="117" t="n"/>
+      <c r="L52" s="117" t="n"/>
+      <c r="M52" s="115" t="inlineStr">
         <is>
           <t>1903-1905</t>
         </is>
       </c>
-      <c r="N52" s="28" t="n"/>
-      <c r="O52" s="28" t="n"/>
-      <c r="P52" s="28" t="n"/>
-      <c r="Q52" s="62" t="n">
+      <c r="N52" s="117" t="n"/>
+      <c r="O52" s="117" t="n"/>
+      <c r="P52" s="117" t="n"/>
+      <c r="Q52" s="127" t="n">
         <v>1248</v>
       </c>
-      <c r="R52" s="28" t="n"/>
-      <c r="S52" s="26" t="inlineStr">
+      <c r="R52" s="117" t="n"/>
+      <c r="S52" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">No Copyright - United States </t>
         </is>
       </c>
-      <c r="T52" s="28" t="n"/>
-      <c r="U52" s="30" t="inlineStr">
+      <c r="T52" s="117" t="n"/>
+      <c r="U52" s="119" t="inlineStr">
         <is>
           <t>Box 6, Folder 2, Bulletin 2174</t>
         </is>
       </c>
-      <c r="V52" s="29" t="inlineStr">
+      <c r="V52" s="118" t="inlineStr">
         <is>
           <t xml:space="preserve">Scan each bulletin as it's own file, glass down. </t>
         </is>
       </c>
-      <c r="W52" s="26" t="inlineStr">
+      <c r="W52" s="115" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B06.F02.Bull.174</t>
         </is>
       </c>
-      <c r="X52" s="52" t="n">
+      <c r="X52" s="125" t="n">
         <v>45495</v>
       </c>
-      <c r="Y52" s="28" t="inlineStr">
+      <c r="Y52" s="117" t="inlineStr">
         <is>
           <t>MC, SK</t>
         </is>
       </c>
-      <c r="Z52" s="28" t="n"/>
-      <c r="AA52" s="33" t="n"/>
-      <c r="AB52" s="32" t="n"/>
-      <c r="AC52" s="32" t="n"/>
-      <c r="AD52" s="34" t="n"/>
-      <c r="AE52" s="33" t="n"/>
-      <c r="AF52" s="33" t="n"/>
-      <c r="AG52" s="33" t="n"/>
+      <c r="Z52" s="117" t="n"/>
+      <c r="AA52" s="128" t="n"/>
+      <c r="AB52" s="123" t="n"/>
+      <c r="AC52" s="123" t="n"/>
+      <c r="AD52" s="126" t="n"/>
+      <c r="AE52" s="128" t="n"/>
+      <c r="AF52" s="128" t="n"/>
+      <c r="AG52" s="128" t="n"/>
     </row>
     <row r="53" ht="90" customHeight="1" s="5">
       <c r="A53" s="6" t="inlineStr">
@@ -21407,101 +21517,101 @@
       <c r="AG59" s="15" t="n"/>
     </row>
     <row r="60" ht="90" customHeight="1" s="5">
-      <c r="A60" s="65" t="inlineStr">
+      <c r="A60" s="97" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B60" s="66" t="n">
+      <c r="B60" s="98" t="n">
         <v>13269</v>
       </c>
-      <c r="C60" s="67" t="n"/>
-      <c r="D60" s="67" t="n"/>
-      <c r="E60" s="67" t="n"/>
-      <c r="F60" s="65" t="inlineStr">
+      <c r="C60" s="99" t="n"/>
+      <c r="D60" s="99" t="n"/>
+      <c r="E60" s="99" t="n"/>
+      <c r="F60" s="97" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Company Bulletins</t>
         </is>
       </c>
-      <c r="G60" s="67" t="n"/>
-      <c r="H60" s="65" t="inlineStr">
+      <c r="G60" s="99" t="n"/>
+      <c r="H60" s="97" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Co. Bulletin No. 340</t>
         </is>
       </c>
-      <c r="I60" s="65" t="inlineStr">
+      <c r="I60" s="97" t="inlineStr">
         <is>
           <t xml:space="preserve">Titile transcribed from bulletin </t>
         </is>
       </c>
-      <c r="J60" s="68" t="inlineStr">
+      <c r="J60" s="100" t="inlineStr">
         <is>
           <t>General Incandescent Light Company (New York, NY)</t>
         </is>
       </c>
-      <c r="K60" s="67" t="n"/>
-      <c r="L60" s="67" t="n"/>
-      <c r="M60" s="65" t="inlineStr">
+      <c r="K60" s="99" t="n"/>
+      <c r="L60" s="99" t="n"/>
+      <c r="M60" s="97" t="inlineStr">
         <is>
           <t>1903-1905</t>
         </is>
       </c>
-      <c r="N60" s="67" t="n"/>
-      <c r="O60" s="67" t="n"/>
-      <c r="P60" s="67" t="n"/>
-      <c r="Q60" s="69" t="n">
+      <c r="N60" s="99" t="n"/>
+      <c r="O60" s="99" t="n"/>
+      <c r="P60" s="99" t="n"/>
+      <c r="Q60" s="101" t="n">
         <v>1462</v>
       </c>
-      <c r="R60" s="67" t="n"/>
-      <c r="S60" s="65" t="inlineStr">
+      <c r="R60" s="99" t="n"/>
+      <c r="S60" s="97" t="inlineStr">
         <is>
           <t xml:space="preserve">No Copyright - United States </t>
         </is>
       </c>
-      <c r="T60" s="67" t="n"/>
-      <c r="U60" s="70" t="inlineStr">
+      <c r="T60" s="99" t="n"/>
+      <c r="U60" s="102" t="inlineStr">
         <is>
           <t>Box 6, Folder 2, Bulletin 340</t>
         </is>
       </c>
-      <c r="V60" s="68" t="inlineStr">
+      <c r="V60" s="100" t="inlineStr">
         <is>
           <t xml:space="preserve">Scan each bulletin as it's own file, glass down. </t>
         </is>
       </c>
-      <c r="W60" s="65" t="inlineStr">
+      <c r="W60" s="97" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B06.F02.Bull.340</t>
         </is>
       </c>
-      <c r="X60" s="71" t="n">
+      <c r="X60" s="103" t="n">
         <v>45495</v>
       </c>
-      <c r="Y60" s="67" t="inlineStr">
+      <c r="Y60" s="99" t="inlineStr">
         <is>
           <t>MC, SK</t>
         </is>
       </c>
-      <c r="Z60" s="67" t="n"/>
-      <c r="AA60" s="72" t="inlineStr">
+      <c r="Z60" s="99" t="n"/>
+      <c r="AA60" s="104" t="inlineStr">
         <is>
           <t>AUTO</t>
         </is>
       </c>
-      <c r="AB60" s="73" t="inlineStr">
+      <c r="AB60" s="105" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="AC60" s="73" t="inlineStr">
+      <c r="AC60" s="105" t="inlineStr">
         <is>
           <t>File does not exist</t>
         </is>
       </c>
-      <c r="AD60" s="74" t="n"/>
-      <c r="AE60" s="72" t="n"/>
-      <c r="AF60" s="72" t="n"/>
-      <c r="AG60" s="72" t="n"/>
+      <c r="AD60" s="106" t="n"/>
+      <c r="AE60" s="104" t="n"/>
+      <c r="AF60" s="104" t="n"/>
+      <c r="AG60" s="104" t="n"/>
     </row>
     <row r="61" ht="90" customHeight="1" s="5">
       <c r="A61" s="17" t="inlineStr">
@@ -21601,101 +21711,101 @@
       <c r="AG61" s="15" t="n"/>
     </row>
     <row r="62" ht="90" customHeight="1" s="5">
-      <c r="A62" s="26" t="inlineStr">
+      <c r="A62" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B62" s="27" t="n">
+      <c r="B62" s="116" t="n">
         <v>13269</v>
       </c>
-      <c r="C62" s="28" t="n"/>
-      <c r="D62" s="28" t="n"/>
-      <c r="E62" s="28" t="n"/>
-      <c r="F62" s="26" t="inlineStr">
+      <c r="C62" s="117" t="n"/>
+      <c r="D62" s="117" t="n"/>
+      <c r="E62" s="117" t="n"/>
+      <c r="F62" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Company Bulletins</t>
         </is>
       </c>
-      <c r="G62" s="28" t="n"/>
-      <c r="H62" s="26" t="inlineStr">
+      <c r="G62" s="117" t="n"/>
+      <c r="H62" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Co. Sheet No. 166</t>
         </is>
       </c>
-      <c r="I62" s="26" t="inlineStr">
+      <c r="I62" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">Titile transcribed from bulletin </t>
         </is>
       </c>
-      <c r="J62" s="29" t="inlineStr">
+      <c r="J62" s="118" t="inlineStr">
         <is>
           <t>General Incandescent Light Company (New York, NY)</t>
         </is>
       </c>
-      <c r="K62" s="28" t="n"/>
-      <c r="L62" s="28" t="n"/>
-      <c r="M62" s="26" t="inlineStr">
+      <c r="K62" s="117" t="n"/>
+      <c r="L62" s="117" t="n"/>
+      <c r="M62" s="115" t="inlineStr">
         <is>
           <t>1903-1905</t>
         </is>
       </c>
-      <c r="N62" s="28" t="n"/>
-      <c r="O62" s="28" t="n"/>
-      <c r="P62" s="28" t="n"/>
-      <c r="Q62" s="62" t="n">
+      <c r="N62" s="117" t="n"/>
+      <c r="O62" s="117" t="n"/>
+      <c r="P62" s="117" t="n"/>
+      <c r="Q62" s="127" t="n">
         <v>1522</v>
       </c>
-      <c r="R62" s="28" t="n"/>
-      <c r="S62" s="26" t="inlineStr">
+      <c r="R62" s="117" t="n"/>
+      <c r="S62" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">No Copyright - United States </t>
         </is>
       </c>
-      <c r="T62" s="28" t="n"/>
-      <c r="U62" s="30" t="inlineStr">
+      <c r="T62" s="117" t="n"/>
+      <c r="U62" s="119" t="inlineStr">
         <is>
           <t>Box 6, Folder 2, Sheet 166</t>
         </is>
       </c>
-      <c r="V62" s="29" t="inlineStr">
+      <c r="V62" s="118" t="inlineStr">
         <is>
           <t xml:space="preserve">Scan each bulletin as it's own file, glass down. </t>
         </is>
       </c>
-      <c r="W62" s="26" t="inlineStr">
+      <c r="W62" s="115" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B06.F02.Bull.166</t>
         </is>
       </c>
-      <c r="X62" s="52" t="n">
+      <c r="X62" s="125" t="n">
         <v>45495</v>
       </c>
-      <c r="Y62" s="28" t="inlineStr">
+      <c r="Y62" s="117" t="inlineStr">
         <is>
           <t>MC, SK</t>
         </is>
       </c>
-      <c r="Z62" s="28" t="n"/>
-      <c r="AA62" s="33" t="inlineStr">
+      <c r="Z62" s="117" t="n"/>
+      <c r="AA62" s="128" t="inlineStr">
         <is>
           <t>AUTO</t>
         </is>
       </c>
-      <c r="AB62" s="32" t="inlineStr">
+      <c r="AB62" s="123" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="AC62" s="32" t="inlineStr">
+      <c r="AC62" s="123" t="inlineStr">
         <is>
           <t>File does not exist</t>
         </is>
       </c>
-      <c r="AD62" s="34" t="n"/>
-      <c r="AE62" s="33" t="n"/>
-      <c r="AF62" s="33" t="n"/>
-      <c r="AG62" s="33" t="n"/>
+      <c r="AD62" s="126" t="n"/>
+      <c r="AE62" s="128" t="n"/>
+      <c r="AF62" s="128" t="n"/>
+      <c r="AG62" s="128" t="n"/>
     </row>
     <row r="63" ht="90" customHeight="1" s="5">
       <c r="A63" s="17" t="inlineStr">
@@ -22183,101 +22293,101 @@
       <c r="AG67" s="15" t="n"/>
     </row>
     <row r="68" ht="90" customHeight="1" s="5">
-      <c r="A68" s="26" t="inlineStr">
+      <c r="A68" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B68" s="27" t="n">
+      <c r="B68" s="116" t="n">
         <v>13269</v>
       </c>
-      <c r="C68" s="28" t="n"/>
-      <c r="D68" s="28" t="n"/>
-      <c r="E68" s="28" t="n"/>
-      <c r="F68" s="26" t="inlineStr">
+      <c r="C68" s="117" t="n"/>
+      <c r="D68" s="117" t="n"/>
+      <c r="E68" s="117" t="n"/>
+      <c r="F68" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Company Bulletins</t>
         </is>
       </c>
-      <c r="G68" s="28" t="n"/>
-      <c r="H68" s="26" t="inlineStr">
+      <c r="G68" s="117" t="n"/>
+      <c r="H68" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Co. Sheet No. 10</t>
         </is>
       </c>
-      <c r="I68" s="26" t="inlineStr">
+      <c r="I68" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">Titile transcribed from bulletin </t>
         </is>
       </c>
-      <c r="J68" s="29" t="inlineStr">
+      <c r="J68" s="118" t="inlineStr">
         <is>
           <t>General Incandescent Light Company (New York, NY)</t>
         </is>
       </c>
-      <c r="K68" s="28" t="n"/>
-      <c r="L68" s="28" t="n"/>
-      <c r="M68" s="26" t="inlineStr">
+      <c r="K68" s="117" t="n"/>
+      <c r="L68" s="117" t="n"/>
+      <c r="M68" s="115" t="inlineStr">
         <is>
           <t>1903-1905</t>
         </is>
       </c>
-      <c r="N68" s="28" t="n"/>
-      <c r="O68" s="28" t="n"/>
-      <c r="P68" s="28" t="n"/>
-      <c r="Q68" s="62" t="n">
+      <c r="N68" s="117" t="n"/>
+      <c r="O68" s="117" t="n"/>
+      <c r="P68" s="117" t="n"/>
+      <c r="Q68" s="127" t="n">
         <v>1706</v>
       </c>
-      <c r="R68" s="28" t="n"/>
-      <c r="S68" s="26" t="inlineStr">
+      <c r="R68" s="117" t="n"/>
+      <c r="S68" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">No Copyright - United States </t>
         </is>
       </c>
-      <c r="T68" s="28" t="n"/>
-      <c r="U68" s="30" t="inlineStr">
+      <c r="T68" s="117" t="n"/>
+      <c r="U68" s="119" t="inlineStr">
         <is>
           <t>Box 6, Folder 2,Sheet 10</t>
         </is>
       </c>
-      <c r="V68" s="29" t="inlineStr">
+      <c r="V68" s="118" t="inlineStr">
         <is>
           <t xml:space="preserve">Scan each bulletin as it's own file, glass down. </t>
         </is>
       </c>
-      <c r="W68" s="26" t="inlineStr">
+      <c r="W68" s="115" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B06.F02.Sheet.10</t>
         </is>
       </c>
-      <c r="X68" s="52" t="n">
+      <c r="X68" s="125" t="n">
         <v>45495</v>
       </c>
-      <c r="Y68" s="28" t="inlineStr">
+      <c r="Y68" s="117" t="inlineStr">
         <is>
           <t>MC, SK</t>
         </is>
       </c>
-      <c r="Z68" s="28" t="n"/>
-      <c r="AA68" s="33" t="inlineStr">
+      <c r="Z68" s="117" t="n"/>
+      <c r="AA68" s="128" t="inlineStr">
         <is>
           <t>AUTO</t>
         </is>
       </c>
-      <c r="AB68" s="32" t="inlineStr">
+      <c r="AB68" s="123" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="AC68" s="32" t="inlineStr">
+      <c r="AC68" s="123" t="inlineStr">
         <is>
           <t>File does not exist</t>
         </is>
       </c>
-      <c r="AD68" s="34" t="n"/>
-      <c r="AE68" s="33" t="n"/>
-      <c r="AF68" s="33" t="n"/>
-      <c r="AG68" s="33" t="n"/>
+      <c r="AD68" s="126" t="n"/>
+      <c r="AE68" s="128" t="n"/>
+      <c r="AF68" s="128" t="n"/>
+      <c r="AG68" s="128" t="n"/>
     </row>
     <row r="69" ht="90" customHeight="1" s="5">
       <c r="A69" s="17" t="inlineStr">
@@ -22377,202 +22487,202 @@
       <c r="AG69" s="15" t="n"/>
     </row>
     <row r="70" ht="90" customHeight="1" s="5">
-      <c r="A70" s="65" t="inlineStr">
+      <c r="A70" s="97" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B70" s="66" t="n">
+      <c r="B70" s="98" t="n">
         <v>13269</v>
       </c>
-      <c r="C70" s="67" t="n"/>
-      <c r="D70" s="67" t="n"/>
-      <c r="E70" s="67" t="n"/>
-      <c r="F70" s="65" t="inlineStr">
+      <c r="C70" s="99" t="n"/>
+      <c r="D70" s="99" t="n"/>
+      <c r="E70" s="99" t="n"/>
+      <c r="F70" s="97" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Company Bulletins</t>
         </is>
       </c>
-      <c r="G70" s="67" t="n"/>
-      <c r="H70" s="65" t="inlineStr">
+      <c r="G70" s="99" t="n"/>
+      <c r="H70" s="97" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Co. Bulletin No. 340</t>
         </is>
       </c>
-      <c r="I70" s="65" t="inlineStr">
+      <c r="I70" s="97" t="inlineStr">
         <is>
           <t xml:space="preserve">Titile transcribed from bulletin </t>
         </is>
       </c>
-      <c r="J70" s="68" t="inlineStr">
+      <c r="J70" s="100" t="inlineStr">
         <is>
           <t>General Incandescent Light Company (New York, NY)</t>
         </is>
       </c>
-      <c r="K70" s="67" t="n"/>
-      <c r="L70" s="67" t="n"/>
-      <c r="M70" s="65" t="inlineStr">
+      <c r="K70" s="99" t="n"/>
+      <c r="L70" s="99" t="n"/>
+      <c r="M70" s="97" t="inlineStr">
         <is>
           <t>1903-1905</t>
         </is>
       </c>
-      <c r="N70" s="67" t="n"/>
-      <c r="O70" s="67" t="n"/>
-      <c r="P70" s="67" t="n"/>
-      <c r="Q70" s="69" t="n">
+      <c r="N70" s="99" t="n"/>
+      <c r="O70" s="99" t="n"/>
+      <c r="P70" s="99" t="n"/>
+      <c r="Q70" s="101" t="n">
         <v>1706</v>
       </c>
-      <c r="R70" s="67" t="n"/>
-      <c r="S70" s="65" t="inlineStr">
+      <c r="R70" s="99" t="n"/>
+      <c r="S70" s="97" t="inlineStr">
         <is>
           <t xml:space="preserve">No Copyright - United States </t>
         </is>
       </c>
-      <c r="T70" s="67" t="n"/>
-      <c r="U70" s="70" t="inlineStr">
+      <c r="T70" s="99" t="n"/>
+      <c r="U70" s="102" t="inlineStr">
         <is>
           <t>Box 6, Folder 2, Bulletin 340</t>
         </is>
       </c>
-      <c r="V70" s="68" t="inlineStr">
+      <c r="V70" s="100" t="inlineStr">
         <is>
           <t xml:space="preserve">Scan each bulletin as it's own file, glass down. </t>
         </is>
       </c>
-      <c r="W70" s="65" t="inlineStr">
+      <c r="W70" s="97" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B06.F02.Bull.340</t>
         </is>
       </c>
-      <c r="X70" s="71" t="n">
+      <c r="X70" s="103" t="n">
         <v>45495</v>
       </c>
-      <c r="Y70" s="67" t="inlineStr">
+      <c r="Y70" s="99" t="inlineStr">
         <is>
           <t>MC, SK</t>
         </is>
       </c>
-      <c r="Z70" s="67" t="n"/>
-      <c r="AA70" s="72" t="inlineStr">
+      <c r="Z70" s="99" t="n"/>
+      <c r="AA70" s="104" t="inlineStr">
         <is>
           <t>AUTO</t>
         </is>
       </c>
-      <c r="AB70" s="73" t="inlineStr">
+      <c r="AB70" s="105" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="AC70" s="73" t="inlineStr">
+      <c r="AC70" s="105" t="inlineStr">
         <is>
           <t>File does not exist</t>
         </is>
       </c>
-      <c r="AD70" s="74" t="n"/>
-      <c r="AE70" s="72" t="n"/>
-      <c r="AF70" s="72" t="n"/>
-      <c r="AG70" s="72" t="n"/>
+      <c r="AD70" s="106" t="n"/>
+      <c r="AE70" s="104" t="n"/>
+      <c r="AF70" s="104" t="n"/>
+      <c r="AG70" s="104" t="n"/>
     </row>
     <row r="71" ht="90" customHeight="1" s="5">
-      <c r="A71" s="26" t="inlineStr">
+      <c r="A71" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B71" s="27" t="n">
+      <c r="B71" s="116" t="n">
         <v>13269</v>
       </c>
-      <c r="C71" s="28" t="n"/>
-      <c r="D71" s="28" t="n"/>
-      <c r="E71" s="28" t="n"/>
-      <c r="F71" s="26" t="inlineStr">
+      <c r="C71" s="117" t="n"/>
+      <c r="D71" s="117" t="n"/>
+      <c r="E71" s="117" t="n"/>
+      <c r="F71" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Company Bulletins</t>
         </is>
       </c>
-      <c r="G71" s="28" t="n"/>
-      <c r="H71" s="26" t="inlineStr">
+      <c r="G71" s="117" t="n"/>
+      <c r="H71" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Co. Bulletin No. 5</t>
         </is>
       </c>
-      <c r="I71" s="26" t="inlineStr">
+      <c r="I71" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">Titile transcribed from bulletin </t>
         </is>
       </c>
-      <c r="J71" s="29" t="inlineStr">
+      <c r="J71" s="118" t="inlineStr">
         <is>
           <t>General Incandescent Light Company (New York, NY)</t>
         </is>
       </c>
-      <c r="K71" s="28" t="n"/>
-      <c r="L71" s="28" t="n"/>
-      <c r="M71" s="26" t="inlineStr">
+      <c r="K71" s="117" t="n"/>
+      <c r="L71" s="117" t="n"/>
+      <c r="M71" s="115" t="inlineStr">
         <is>
           <t>1903-1905</t>
         </is>
       </c>
-      <c r="N71" s="28" t="n"/>
-      <c r="O71" s="28" t="n"/>
-      <c r="P71" s="28" t="n"/>
-      <c r="Q71" s="62" t="n">
+      <c r="N71" s="117" t="n"/>
+      <c r="O71" s="117" t="n"/>
+      <c r="P71" s="117" t="n"/>
+      <c r="Q71" s="127" t="n">
         <v>1736</v>
       </c>
-      <c r="R71" s="28" t="n"/>
-      <c r="S71" s="26" t="inlineStr">
+      <c r="R71" s="117" t="n"/>
+      <c r="S71" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">No Copyright - United States </t>
         </is>
       </c>
-      <c r="T71" s="28" t="n"/>
-      <c r="U71" s="30" t="inlineStr">
+      <c r="T71" s="117" t="n"/>
+      <c r="U71" s="119" t="inlineStr">
         <is>
           <t>Box 6, Folder 2, Bulletin 5</t>
         </is>
       </c>
-      <c r="V71" s="29" t="inlineStr">
+      <c r="V71" s="118" t="inlineStr">
         <is>
           <t xml:space="preserve">Scan each bulletin as it's own file, glass down. </t>
         </is>
       </c>
-      <c r="W71" s="26" t="inlineStr">
+      <c r="W71" s="115" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B06.F02.Bull.5</t>
         </is>
       </c>
-      <c r="X71" s="52" t="n">
+      <c r="X71" s="125" t="n">
         <v>45495</v>
       </c>
-      <c r="Y71" s="28" t="inlineStr">
+      <c r="Y71" s="117" t="inlineStr">
         <is>
           <t>JG</t>
         </is>
       </c>
-      <c r="Z71" s="28" t="inlineStr">
+      <c r="Z71" s="117" t="inlineStr">
         <is>
           <t xml:space="preserve">End of right side </t>
         </is>
       </c>
-      <c r="AA71" s="33" t="inlineStr">
+      <c r="AA71" s="128" t="inlineStr">
         <is>
           <t>AUTO</t>
         </is>
       </c>
-      <c r="AB71" s="32" t="inlineStr">
+      <c r="AB71" s="123" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="AC71" s="32" t="inlineStr">
+      <c r="AC71" s="123" t="inlineStr">
         <is>
           <t>File does not exist</t>
         </is>
       </c>
-      <c r="AD71" s="34" t="n"/>
-      <c r="AE71" s="33" t="n"/>
-      <c r="AF71" s="33" t="n"/>
-      <c r="AG71" s="33" t="n"/>
+      <c r="AD71" s="126" t="n"/>
+      <c r="AE71" s="128" t="n"/>
+      <c r="AF71" s="128" t="n"/>
+      <c r="AG71" s="128" t="n"/>
     </row>
     <row r="72" ht="90" customHeight="1" s="5">
       <c r="A72" s="17" t="inlineStr">
@@ -23258,101 +23368,101 @@
       <c r="AG78" s="15" t="n"/>
     </row>
     <row r="79" ht="90" customHeight="1" s="5">
-      <c r="A79" s="26" t="inlineStr">
+      <c r="A79" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B79" s="27" t="n">
+      <c r="B79" s="116" t="n">
         <v>13269</v>
       </c>
-      <c r="C79" s="28" t="n"/>
-      <c r="D79" s="28" t="n"/>
-      <c r="E79" s="28" t="n"/>
-      <c r="F79" s="26" t="inlineStr">
+      <c r="C79" s="117" t="n"/>
+      <c r="D79" s="117" t="n"/>
+      <c r="E79" s="117" t="n"/>
+      <c r="F79" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Company Bulletins</t>
         </is>
       </c>
-      <c r="G79" s="28" t="n"/>
-      <c r="H79" s="26" t="inlineStr">
+      <c r="G79" s="117" t="n"/>
+      <c r="H79" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Co. Bulletin No. 6</t>
         </is>
       </c>
-      <c r="I79" s="26" t="inlineStr">
+      <c r="I79" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">Titile transcribed from bulletin </t>
         </is>
       </c>
-      <c r="J79" s="29" t="inlineStr">
+      <c r="J79" s="118" t="inlineStr">
         <is>
           <t>General Incandescent Light Company (New York, NY)</t>
         </is>
       </c>
-      <c r="K79" s="28" t="n"/>
-      <c r="L79" s="28" t="n"/>
-      <c r="M79" s="26" t="inlineStr">
+      <c r="K79" s="117" t="n"/>
+      <c r="L79" s="117" t="n"/>
+      <c r="M79" s="115" t="inlineStr">
         <is>
           <t>1903-1905</t>
         </is>
       </c>
-      <c r="N79" s="28" t="n"/>
-      <c r="O79" s="28" t="n"/>
-      <c r="P79" s="28" t="n"/>
-      <c r="Q79" s="62" t="n">
+      <c r="N79" s="117" t="n"/>
+      <c r="O79" s="117" t="n"/>
+      <c r="P79" s="117" t="n"/>
+      <c r="Q79" s="127" t="n">
         <v>1828</v>
       </c>
-      <c r="R79" s="28" t="n"/>
-      <c r="S79" s="26" t="inlineStr">
+      <c r="R79" s="117" t="n"/>
+      <c r="S79" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">No Copyright - United States </t>
         </is>
       </c>
-      <c r="T79" s="28" t="n"/>
-      <c r="U79" s="30" t="inlineStr">
+      <c r="T79" s="117" t="n"/>
+      <c r="U79" s="119" t="inlineStr">
         <is>
           <t>Box 6, Folder 2, Bulletin 66</t>
         </is>
       </c>
-      <c r="V79" s="29" t="inlineStr">
+      <c r="V79" s="118" t="inlineStr">
         <is>
           <t xml:space="preserve">Scan each bulletin as it's own file, glass down. </t>
         </is>
       </c>
-      <c r="W79" s="26" t="inlineStr">
+      <c r="W79" s="115" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B06.F02.Bull.66b</t>
         </is>
       </c>
-      <c r="X79" s="52" t="n">
+      <c r="X79" s="125" t="n">
         <v>45495</v>
       </c>
-      <c r="Y79" s="28" t="inlineStr">
+      <c r="Y79" s="117" t="inlineStr">
         <is>
           <t>JG</t>
         </is>
       </c>
-      <c r="Z79" s="28" t="n"/>
-      <c r="AA79" s="32" t="inlineStr">
+      <c r="Z79" s="117" t="n"/>
+      <c r="AA79" s="123" t="inlineStr">
         <is>
           <t>AUTO</t>
         </is>
       </c>
-      <c r="AB79" s="32" t="inlineStr">
+      <c r="AB79" s="123" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="AC79" s="32" t="inlineStr">
+      <c r="AC79" s="123" t="inlineStr">
         <is>
           <t>File does not exist</t>
         </is>
       </c>
-      <c r="AD79" s="34" t="n"/>
-      <c r="AE79" s="32" t="n"/>
-      <c r="AF79" s="32" t="n"/>
-      <c r="AG79" s="32" t="n"/>
+      <c r="AD79" s="126" t="n"/>
+      <c r="AE79" s="123" t="n"/>
+      <c r="AF79" s="123" t="n"/>
+      <c r="AG79" s="123" t="n"/>
     </row>
     <row r="80" ht="90" customHeight="1" s="5">
       <c r="A80" s="17" t="inlineStr">
@@ -23840,101 +23950,101 @@
       <c r="AG84" s="15" t="n"/>
     </row>
     <row r="85" ht="90" customHeight="1" s="5">
-      <c r="A85" s="26" t="inlineStr">
+      <c r="A85" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B85" s="27" t="n">
+      <c r="B85" s="116" t="n">
         <v>13269</v>
       </c>
-      <c r="C85" s="28" t="n"/>
-      <c r="D85" s="28" t="n"/>
-      <c r="E85" s="28" t="n"/>
-      <c r="F85" s="26" t="inlineStr">
+      <c r="C85" s="117" t="n"/>
+      <c r="D85" s="117" t="n"/>
+      <c r="E85" s="117" t="n"/>
+      <c r="F85" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Company Bulletins</t>
         </is>
       </c>
-      <c r="G85" s="28" t="n"/>
-      <c r="H85" s="26" t="inlineStr">
+      <c r="G85" s="117" t="n"/>
+      <c r="H85" s="115" t="inlineStr">
         <is>
           <t>General Incandescent Arc Light Co. Bulletin No. 282</t>
         </is>
       </c>
-      <c r="I85" s="26" t="inlineStr">
+      <c r="I85" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">Titile transcribed from bulletin </t>
         </is>
       </c>
-      <c r="J85" s="29" t="inlineStr">
+      <c r="J85" s="118" t="inlineStr">
         <is>
           <t>General Incandescent Light Company (New York, NY)</t>
         </is>
       </c>
-      <c r="K85" s="28" t="n"/>
-      <c r="L85" s="28" t="n"/>
-      <c r="M85" s="26" t="inlineStr">
+      <c r="K85" s="117" t="n"/>
+      <c r="L85" s="117" t="n"/>
+      <c r="M85" s="115" t="inlineStr">
         <is>
           <t>1903-1905</t>
         </is>
       </c>
-      <c r="N85" s="28" t="n"/>
-      <c r="O85" s="28" t="n"/>
-      <c r="P85" s="28" t="n"/>
-      <c r="Q85" s="62" t="n">
+      <c r="N85" s="117" t="n"/>
+      <c r="O85" s="117" t="n"/>
+      <c r="P85" s="117" t="n"/>
+      <c r="Q85" s="127" t="n">
         <v>1887</v>
       </c>
-      <c r="R85" s="28" t="n"/>
-      <c r="S85" s="26" t="inlineStr">
+      <c r="R85" s="117" t="n"/>
+      <c r="S85" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">No Copyright - United States </t>
         </is>
       </c>
-      <c r="T85" s="28" t="n"/>
-      <c r="U85" s="30" t="inlineStr">
+      <c r="T85" s="117" t="n"/>
+      <c r="U85" s="119" t="inlineStr">
         <is>
           <t>Box 6, Folder 2, Bulletin 282</t>
         </is>
       </c>
-      <c r="V85" s="29" t="inlineStr">
+      <c r="V85" s="118" t="inlineStr">
         <is>
           <t xml:space="preserve">Scan each bulletin as it's own file, glass down. </t>
         </is>
       </c>
-      <c r="W85" s="26" t="inlineStr">
+      <c r="W85" s="115" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B06.F02.Bull.28</t>
         </is>
       </c>
-      <c r="X85" s="52" t="n">
+      <c r="X85" s="125" t="n">
         <v>45495</v>
       </c>
-      <c r="Y85" s="28" t="inlineStr">
+      <c r="Y85" s="117" t="inlineStr">
         <is>
           <t>JG</t>
         </is>
       </c>
-      <c r="Z85" s="28" t="n"/>
-      <c r="AA85" s="33" t="inlineStr">
+      <c r="Z85" s="117" t="n"/>
+      <c r="AA85" s="128" t="inlineStr">
         <is>
           <t>AUTO</t>
         </is>
       </c>
-      <c r="AB85" s="32" t="inlineStr">
+      <c r="AB85" s="123" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="AC85" s="32" t="inlineStr">
+      <c r="AC85" s="123" t="inlineStr">
         <is>
           <t>File does not exist</t>
         </is>
       </c>
-      <c r="AD85" s="34" t="n"/>
-      <c r="AE85" s="33" t="n"/>
-      <c r="AF85" s="33" t="n"/>
-      <c r="AG85" s="33" t="n"/>
+      <c r="AD85" s="126" t="n"/>
+      <c r="AE85" s="128" t="n"/>
+      <c r="AF85" s="128" t="n"/>
+      <c r="AG85" s="128" t="n"/>
     </row>
     <row r="86" ht="90" customHeight="1" s="5">
       <c r="A86" s="17" t="inlineStr">
@@ -25780,101 +25890,101 @@
       <c r="AG104" s="15" t="n"/>
     </row>
     <row r="105" ht="15" customHeight="1" s="5">
-      <c r="A105" s="75" t="inlineStr">
+      <c r="A105" s="107" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B105" s="76" t="n">
+      <c r="B105" s="108" t="n">
         <v>13275</v>
       </c>
-      <c r="C105" s="77" t="n"/>
-      <c r="D105" s="77" t="n"/>
-      <c r="E105" s="77" t="n"/>
-      <c r="F105" s="75" t="inlineStr">
+      <c r="C105" s="109" t="n"/>
+      <c r="D105" s="109" t="n"/>
+      <c r="E105" s="109" t="n"/>
+      <c r="F105" s="107" t="inlineStr">
         <is>
           <t>"Apparatus for Transmission of Light and Power"</t>
         </is>
       </c>
-      <c r="G105" s="77" t="n"/>
-      <c r="H105" s="75" t="inlineStr">
+      <c r="G105" s="109" t="n"/>
+      <c r="H105" s="107" t="inlineStr">
         <is>
           <t>Apparatus for Transmission of Light and Power</t>
         </is>
       </c>
-      <c r="I105" s="75" t="inlineStr">
+      <c r="I105" s="107" t="inlineStr">
         <is>
           <t xml:space="preserve">"C.C Chesney" transcribed on front cover. </t>
         </is>
       </c>
-      <c r="J105" s="75" t="inlineStr">
+      <c r="J105" s="107" t="inlineStr">
         <is>
           <t>The Royal Electric Co. (Montreal, Canada)</t>
         </is>
       </c>
-      <c r="K105" s="77" t="n"/>
-      <c r="L105" s="77" t="n"/>
-      <c r="M105" s="76" t="n">
+      <c r="K105" s="109" t="n"/>
+      <c r="L105" s="109" t="n"/>
+      <c r="M105" s="108" t="n">
         <v>1896</v>
       </c>
-      <c r="N105" s="77" t="n"/>
-      <c r="O105" s="77" t="n"/>
-      <c r="P105" s="77" t="n"/>
-      <c r="Q105" s="78" t="inlineStr">
+      <c r="N105" s="109" t="n"/>
+      <c r="O105" s="109" t="n"/>
+      <c r="P105" s="109" t="n"/>
+      <c r="Q105" s="110" t="inlineStr">
         <is>
           <t>undated</t>
         </is>
       </c>
-      <c r="R105" s="77" t="n"/>
-      <c r="S105" s="75" t="inlineStr">
+      <c r="R105" s="109" t="n"/>
+      <c r="S105" s="107" t="inlineStr">
         <is>
           <t>Copyright Undetermind</t>
         </is>
       </c>
-      <c r="T105" s="77" t="n"/>
-      <c r="U105" s="77" t="inlineStr">
+      <c r="T105" s="109" t="n"/>
+      <c r="U105" s="109" t="inlineStr">
         <is>
           <t>Box 6, Folder 4, Item 2</t>
         </is>
       </c>
-      <c r="V105" s="77" t="inlineStr">
+      <c r="V105" s="109" t="inlineStr">
         <is>
           <t>Glass Down. Do not scan duplicate. Scan copy with C.C Chesney written on front</t>
         </is>
       </c>
-      <c r="W105" s="75" t="inlineStr">
+      <c r="W105" s="107" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B06.F04.02</t>
         </is>
       </c>
-      <c r="X105" s="79" t="n">
+      <c r="X105" s="111" t="n">
         <v>45496</v>
       </c>
-      <c r="Y105" s="77" t="inlineStr">
+      <c r="Y105" s="109" t="inlineStr">
         <is>
           <t>MC,GH</t>
         </is>
       </c>
-      <c r="Z105" s="77" t="n"/>
-      <c r="AA105" s="80" t="inlineStr">
+      <c r="Z105" s="109" t="n"/>
+      <c r="AA105" s="112" t="inlineStr">
         <is>
           <t>AUTO</t>
         </is>
       </c>
-      <c r="AB105" s="81" t="inlineStr">
+      <c r="AB105" s="113" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="AC105" s="81" t="inlineStr">
+      <c r="AC105" s="113" t="inlineStr">
         <is>
           <t>File does not exist</t>
         </is>
       </c>
-      <c r="AD105" s="82" t="n"/>
-      <c r="AE105" s="80" t="n"/>
-      <c r="AF105" s="80" t="n"/>
-      <c r="AG105" s="80" t="n"/>
+      <c r="AD105" s="114" t="n"/>
+      <c r="AE105" s="112" t="n"/>
+      <c r="AF105" s="112" t="n"/>
+      <c r="AG105" s="112" t="n"/>
     </row>
     <row r="106" ht="165" customHeight="1" s="5">
       <c r="A106" s="17" t="inlineStr">
@@ -33288,80 +33398,80 @@
       <c r="AF39" s="2" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="5">
-      <c r="A40" s="26" t="inlineStr">
+      <c r="A40" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B40" s="27" t="n">
+      <c r="B40" s="116" t="n">
         <v>13278</v>
       </c>
-      <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
-      <c r="E40" s="28" t="n"/>
-      <c r="F40" s="26" t="inlineStr">
+      <c r="C40" s="117" t="n"/>
+      <c r="D40" s="117" t="n"/>
+      <c r="E40" s="117" t="n"/>
+      <c r="F40" s="115" t="inlineStr">
         <is>
           <t>Stanley patents</t>
         </is>
       </c>
-      <c r="G40" s="28" t="n"/>
-      <c r="H40" s="30" t="inlineStr">
+      <c r="G40" s="117" t="n"/>
+      <c r="H40" s="119" t="inlineStr">
         <is>
           <t>Letter from Pennie, Davis, and Goldsborough to William Stanley Jr., September 23, 1911</t>
         </is>
       </c>
-      <c r="I40" s="28" t="n"/>
-      <c r="J40" s="28" t="n"/>
-      <c r="K40" s="28" t="n"/>
-      <c r="L40" s="28" t="n"/>
-      <c r="M40" s="26" t="inlineStr">
+      <c r="I40" s="117" t="n"/>
+      <c r="J40" s="117" t="n"/>
+      <c r="K40" s="117" t="n"/>
+      <c r="L40" s="117" t="n"/>
+      <c r="M40" s="115" t="inlineStr">
         <is>
           <t>1902-1907</t>
         </is>
       </c>
-      <c r="N40" s="28" t="n"/>
-      <c r="O40" s="28" t="n"/>
-      <c r="P40" s="28" t="n"/>
-      <c r="Q40" s="62" t="n">
+      <c r="N40" s="117" t="n"/>
+      <c r="O40" s="117" t="n"/>
+      <c r="P40" s="117" t="n"/>
+      <c r="Q40" s="127" t="n">
         <v>4284</v>
       </c>
-      <c r="R40" s="28" t="n"/>
-      <c r="S40" s="26" t="inlineStr">
+      <c r="R40" s="117" t="n"/>
+      <c r="S40" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">No Copyright - United States </t>
         </is>
       </c>
-      <c r="T40" s="28" t="n"/>
-      <c r="U40" s="28" t="inlineStr">
+      <c r="T40" s="117" t="n"/>
+      <c r="U40" s="117" t="inlineStr">
         <is>
           <t>Box 7, Folder 2, Item 25</t>
         </is>
       </c>
-      <c r="V40" s="28" t="inlineStr">
+      <c r="V40" s="117" t="inlineStr">
         <is>
           <t xml:space="preserve">Glass Down. Leave in Sleeve. </t>
         </is>
       </c>
-      <c r="W40" s="28" t="inlineStr">
+      <c r="W40" s="117" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B07.F02.24.14</t>
         </is>
       </c>
-      <c r="X40" s="52" t="n">
+      <c r="X40" s="125" t="n">
         <v>45503</v>
       </c>
-      <c r="Y40" s="28" t="inlineStr">
+      <c r="Y40" s="117" t="inlineStr">
         <is>
           <t>MC</t>
         </is>
       </c>
-      <c r="Z40" s="28" t="n"/>
-      <c r="AA40" s="30" t="n"/>
-      <c r="AB40" s="28" t="n"/>
-      <c r="AC40" s="32" t="n"/>
-      <c r="AD40" s="28" t="n"/>
-      <c r="AE40" s="28" t="n"/>
-      <c r="AF40" s="28" t="n"/>
+      <c r="Z40" s="117" t="n"/>
+      <c r="AA40" s="119" t="n"/>
+      <c r="AB40" s="117" t="n"/>
+      <c r="AC40" s="123" t="n"/>
+      <c r="AD40" s="117" t="n"/>
+      <c r="AE40" s="117" t="n"/>
+      <c r="AF40" s="117" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="5">
       <c r="A41" s="6" t="inlineStr">
@@ -35578,94 +35688,94 @@
       <c r="AF66" s="19" t="n"/>
     </row>
     <row r="67" ht="105" customHeight="1" s="5">
-      <c r="A67" s="26" t="inlineStr">
+      <c r="A67" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B67" s="27" t="n">
+      <c r="B67" s="116" t="n">
         <v>13282</v>
       </c>
-      <c r="C67" s="28" t="n"/>
-      <c r="D67" s="28" t="n"/>
-      <c r="E67" s="28" t="n"/>
-      <c r="F67" s="29" t="inlineStr">
+      <c r="C67" s="117" t="n"/>
+      <c r="D67" s="117" t="n"/>
+      <c r="E67" s="117" t="n"/>
+      <c r="F67" s="118" t="inlineStr">
         <is>
           <t>Correspondence regarding Stanley, Tesla and Westinghouse patents</t>
         </is>
       </c>
-      <c r="G67" s="28" t="n"/>
-      <c r="H67" s="26" t="inlineStr">
+      <c r="G67" s="117" t="n"/>
+      <c r="H67" s="115" t="inlineStr">
         <is>
           <t>"Edison Expressed Regrat" by George C. Stanley Clipping, Untitled Newspaper</t>
         </is>
       </c>
-      <c r="I67" s="28" t="n"/>
-      <c r="J67" s="28" t="n"/>
-      <c r="K67" s="28" t="n"/>
-      <c r="L67" s="28" t="n"/>
-      <c r="M67" s="26" t="inlineStr">
+      <c r="I67" s="117" t="n"/>
+      <c r="J67" s="117" t="n"/>
+      <c r="K67" s="117" t="n"/>
+      <c r="L67" s="117" t="n"/>
+      <c r="M67" s="115" t="inlineStr">
         <is>
           <t>1952-1975</t>
         </is>
       </c>
-      <c r="N67" s="28" t="n"/>
-      <c r="O67" s="28" t="n"/>
-      <c r="P67" s="26" t="inlineStr">
+      <c r="N67" s="117" t="n"/>
+      <c r="O67" s="117" t="n"/>
+      <c r="P67" s="115" t="inlineStr">
         <is>
           <t>undated</t>
         </is>
       </c>
-      <c r="Q67" s="59" t="n"/>
-      <c r="R67" s="28" t="n"/>
-      <c r="S67" s="26" t="inlineStr">
+      <c r="Q67" s="120" t="n"/>
+      <c r="R67" s="117" t="n"/>
+      <c r="S67" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">Copyright Undetermined </t>
         </is>
       </c>
-      <c r="T67" s="28" t="n"/>
-      <c r="U67" s="28" t="inlineStr">
+      <c r="T67" s="117" t="n"/>
+      <c r="U67" s="117" t="inlineStr">
         <is>
           <t>Box 7, Foider 7, Item 10</t>
         </is>
       </c>
-      <c r="V67" s="30" t="inlineStr">
+      <c r="V67" s="119" t="inlineStr">
         <is>
           <t>Glass Down</t>
         </is>
       </c>
-      <c r="W67" s="28" t="inlineStr">
+      <c r="W67" s="117" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B07.F07.10</t>
         </is>
       </c>
-      <c r="X67" s="52" t="n">
+      <c r="X67" s="125" t="n">
         <v>45504</v>
       </c>
-      <c r="Y67" s="28" t="inlineStr">
+      <c r="Y67" s="117" t="inlineStr">
         <is>
           <t>MC</t>
         </is>
       </c>
-      <c r="Z67" s="28" t="n"/>
-      <c r="AA67" s="30" t="inlineStr">
+      <c r="Z67" s="117" t="n"/>
+      <c r="AA67" s="119" t="inlineStr">
         <is>
           <t>File does not exist</t>
         </is>
       </c>
-      <c r="AB67" s="28" t="inlineStr">
+      <c r="AB67" s="117" t="inlineStr">
         <is>
           <t>AUTO</t>
         </is>
       </c>
-      <c r="AC67" s="32" t="inlineStr">
+      <c r="AC67" s="123" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="AD67" s="28" t="n"/>
-      <c r="AE67" s="28" t="n"/>
-      <c r="AF67" s="28" t="n"/>
+      <c r="AD67" s="117" t="n"/>
+      <c r="AE67" s="117" t="n"/>
+      <c r="AF67" s="117" t="n"/>
     </row>
     <row r="68" ht="105" customHeight="1" s="5">
       <c r="A68" s="17" t="inlineStr">
@@ -36022,88 +36132,88 @@
       <c r="AF71" s="19" t="n"/>
     </row>
     <row r="72" ht="105" customHeight="1" s="5">
-      <c r="A72" s="26" t="inlineStr">
+      <c r="A72" s="115" t="inlineStr">
         <is>
           <t>William Stanley Jr. collection</t>
         </is>
       </c>
-      <c r="B72" s="27" t="n">
+      <c r="B72" s="116" t="n">
         <v>13282</v>
       </c>
-      <c r="C72" s="28" t="n"/>
-      <c r="D72" s="28" t="n"/>
-      <c r="E72" s="28" t="n"/>
-      <c r="F72" s="29" t="inlineStr">
+      <c r="C72" s="117" t="n"/>
+      <c r="D72" s="117" t="n"/>
+      <c r="E72" s="117" t="n"/>
+      <c r="F72" s="118" t="inlineStr">
         <is>
           <t>Correspondence regarding Stanley, Tesla and Westinghouse patents</t>
         </is>
       </c>
-      <c r="G72" s="28" t="n"/>
-      <c r="H72" s="30" t="inlineStr">
+      <c r="G72" s="117" t="n"/>
+      <c r="H72" s="119" t="inlineStr">
         <is>
           <t>Letter from Harold to Unnamed, December 16, 1952</t>
         </is>
       </c>
-      <c r="I72" s="28" t="n"/>
-      <c r="J72" s="28" t="n"/>
-      <c r="K72" s="28" t="n"/>
-      <c r="L72" s="28" t="n"/>
-      <c r="M72" s="28" t="n"/>
-      <c r="N72" s="28" t="n"/>
-      <c r="O72" s="28" t="n"/>
-      <c r="P72" s="28" t="n"/>
-      <c r="Q72" s="59" t="n">
+      <c r="I72" s="117" t="n"/>
+      <c r="J72" s="117" t="n"/>
+      <c r="K72" s="117" t="n"/>
+      <c r="L72" s="117" t="n"/>
+      <c r="M72" s="117" t="n"/>
+      <c r="N72" s="117" t="n"/>
+      <c r="O72" s="117" t="n"/>
+      <c r="P72" s="117" t="n"/>
+      <c r="Q72" s="120" t="n">
         <v>19344</v>
       </c>
-      <c r="R72" s="28" t="n"/>
-      <c r="S72" s="26" t="inlineStr">
+      <c r="R72" s="117" t="n"/>
+      <c r="S72" s="115" t="inlineStr">
         <is>
           <t xml:space="preserve">In Copyright </t>
         </is>
       </c>
-      <c r="T72" s="28" t="n"/>
-      <c r="U72" s="28" t="inlineStr">
+      <c r="T72" s="117" t="n"/>
+      <c r="U72" s="117" t="inlineStr">
         <is>
           <t>Box 7, Item 7, Item 15</t>
         </is>
       </c>
-      <c r="V72" s="30" t="inlineStr">
+      <c r="V72" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve">Glass Up, Onion Paper - White paper blow </t>
         </is>
       </c>
-      <c r="W72" s="28" t="inlineStr">
+      <c r="W72" s="117" t="inlineStr">
         <is>
           <t>ZWU_SCA0319.B07.F07.15</t>
         </is>
       </c>
-      <c r="X72" s="52" t="n">
+      <c r="X72" s="125" t="n">
         <v>45504</v>
       </c>
-      <c r="Y72" s="28" t="inlineStr">
+      <c r="Y72" s="117" t="inlineStr">
         <is>
           <t>MC</t>
         </is>
       </c>
-      <c r="Z72" s="28" t="n"/>
-      <c r="AA72" s="30" t="inlineStr">
+      <c r="Z72" s="117" t="n"/>
+      <c r="AA72" s="119" t="inlineStr">
         <is>
           <t>File does not exist</t>
         </is>
       </c>
-      <c r="AB72" s="28" t="inlineStr">
+      <c r="AB72" s="117" t="inlineStr">
         <is>
           <t>AUTO</t>
         </is>
       </c>
-      <c r="AC72" s="32" t="inlineStr">
+      <c r="AC72" s="123" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="AD72" s="28" t="n"/>
-      <c r="AE72" s="28" t="n"/>
-      <c r="AF72" s="28" t="n"/>
+      <c r="AD72" s="117" t="n"/>
+      <c r="AE72" s="117" t="n"/>
+      <c r="AF72" s="117" t="n"/>
     </row>
     <row r="73" ht="12.75" customHeight="1" s="5">
       <c r="A73" s="2" t="n"/>
